--- a/excels/DAW_libro.xlsx
+++ b/excels/DAW_libro.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvaedu.sharepoint.com/sites/Section_46017675-C2-Dept.Informtica/Documentos compartidos/Dept. Informàtica/curso2025_2026/PCCF_PDs/PD Esquemas Generales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1759" documentId="8_{720BC0E7-CFF6-4397-A6DB-0000B2F019C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CA53B4A-A4A6-4BB6-A13A-8D56663F1687}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E71EB6-E6F0-498C-A827-E4D31DD62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introducción a la Nube Pública" sheetId="1" r:id="rId1"/>
-    <sheet name="Sistemas Informáticos" sheetId="2" r:id="rId2"/>
-    <sheet name="Bases de Datos" sheetId="3" r:id="rId3"/>
-    <sheet name="Programación" sheetId="4" r:id="rId4"/>
-    <sheet name="Lenguajes de marcas y sistemas " sheetId="5" r:id="rId5"/>
-    <sheet name="Entornos de desarrollo" sheetId="6" r:id="rId6"/>
-    <sheet name="Inglés Profesional (GS)" sheetId="7" r:id="rId7"/>
-    <sheet name="Desarrollo Web en Entorno Clien" sheetId="11" r:id="rId8"/>
-    <sheet name="Desarrollo Web en Entorno Servi" sheetId="8" r:id="rId9"/>
-    <sheet name="Despliegue de aplicaciones web" sheetId="9" r:id="rId10"/>
-    <sheet name="Diseño de interfaces web" sheetId="10" r:id="rId11"/>
-    <sheet name="Sostenibilidad aplicada al sist" sheetId="12" r:id="rId12"/>
+    <sheet name="SI" sheetId="2" r:id="rId2"/>
+    <sheet name="BBDD" sheetId="3" r:id="rId3"/>
+    <sheet name="PROG" sheetId="4" r:id="rId4"/>
+    <sheet name="LM" sheetId="5" r:id="rId5"/>
+    <sheet name="ED" sheetId="6" r:id="rId6"/>
+    <sheet name="Inglés" sheetId="7" r:id="rId7"/>
+    <sheet name="DWEC" sheetId="11" r:id="rId8"/>
+    <sheet name="DWES" sheetId="8" r:id="rId9"/>
+    <sheet name="DAW" sheetId="9" r:id="rId10"/>
+    <sheet name="DIW" sheetId="10" r:id="rId11"/>
+    <sheet name="Sostenibilidad" sheetId="12" r:id="rId12"/>
     <sheet name="IPE1" sheetId="13" r:id="rId13"/>
     <sheet name="IPE2" sheetId="14" r:id="rId14"/>
-    <sheet name="Digitalización aplicada a los s" sheetId="15" r:id="rId15"/>
+    <sheet name="Digitalización" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -3284,35 +3284,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3324,16 +3337,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3341,47 +3360,28 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3709,7 +3709,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="73"/>
@@ -3719,7 +3719,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="73"/>
@@ -3732,15 +3732,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3762,31 +3762,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3797,15 +3797,15 @@
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3830,7 +3830,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3880,7 +3880,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
@@ -3913,10 +3913,10 @@
       <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="48">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3941,7 +3941,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
@@ -4000,7 +4000,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="7" t="s">
         <v>33</v>
       </c>
@@ -4039,10 +4039,10 @@
       <c r="D25" s="73"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="48">
         <v>35</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -4067,7 +4067,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>36</v>
       </c>
@@ -4129,7 +4129,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
-      <c r="D31" s="38"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="7" t="s">
         <v>40</v>
       </c>
@@ -4165,10 +4165,10 @@
       <c r="D33" s="73"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="48">
         <v>35</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4193,7 +4193,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>43</v>
       </c>
@@ -4255,7 +4255,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="38"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="7" t="s">
         <v>47</v>
       </c>
@@ -4289,11 +4289,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J34:J40"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B8:B9"/>
@@ -4305,24 +4318,11 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="B34:B41"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="J34:J40"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J26:J32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4349,7 +4349,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>647</v>
       </c>
       <c r="D1" s="73"/>
@@ -4359,7 +4359,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>648</v>
       </c>
       <c r="D2" s="73"/>
@@ -4372,15 +4372,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -4406,31 +4406,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4446,10 +4446,10 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>651</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4477,7 +4477,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>652</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4577,7 +4577,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="45" t="s">
         <v>659</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4631,10 +4631,10 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="15">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="50" t="s">
         <v>663</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="48">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4661,7 +4661,7 @@
     <row r="22" spans="2:10" ht="14.45" customHeight="1">
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="45" t="s">
         <v>652</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -4761,7 +4761,7 @@
     <row r="28" spans="2:10" ht="28.9">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="45" t="s">
         <v>659</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -4831,10 +4831,10 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="15">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="50" t="s">
         <v>674</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="48">
         <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4862,7 +4862,7 @@
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="45" t="s">
         <v>652</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -4962,7 +4962,7 @@
     <row r="40" spans="2:10" ht="14.45" customHeight="1">
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="45" t="s">
         <v>659</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -5016,10 +5016,10 @@
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="15">
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="50" t="s">
         <v>684</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="48">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -5047,7 +5047,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="73"/>
       <c r="C45" s="73"/>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="45" t="s">
         <v>652</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -5131,7 +5131,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="45" t="s">
         <v>659</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -5185,10 +5185,10 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="2:10" ht="15">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="50" t="s">
         <v>693</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="48">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -5216,7 +5216,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="45" t="s">
         <v>652</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -5300,7 +5300,7 @@
     <row r="60" spans="2:10" ht="28.9" customHeight="1">
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="45" t="s">
         <v>659</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -5354,10 +5354,10 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:10" ht="15">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="50" t="s">
         <v>702</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="48">
         <v>10</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -5384,7 +5384,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="73"/>
       <c r="C65" s="73"/>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="45" t="s">
         <v>652</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -5468,7 +5468,7 @@
     <row r="70" spans="2:10" ht="28.9" customHeight="1">
       <c r="B70" s="73"/>
       <c r="C70" s="73"/>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="45" t="s">
         <v>659</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -5523,6 +5523,34 @@
     <row r="74" spans="2:10" ht="15"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="J21:J31"/>
     <mergeCell ref="J64:J72"/>
     <mergeCell ref="D8:D9"/>
@@ -5539,34 +5567,6 @@
     <mergeCell ref="J54:J62"/>
     <mergeCell ref="D40:D43"/>
     <mergeCell ref="J10:J19"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B10:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5594,7 +5594,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>711</v>
       </c>
       <c r="D1" s="73"/>
@@ -5604,7 +5604,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>712</v>
       </c>
       <c r="D2" s="73"/>
@@ -5617,15 +5617,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>713</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -5634,7 +5634,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="F4" s="73"/>
-      <c r="I4" s="48"/>
+      <c r="I4" s="55"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -5653,31 +5653,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5689,14 +5689,14 @@
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5717,12 +5717,12 @@
         <f>SUM(I11:I16)</f>
         <v>9.7777777777777786</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>717</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -5815,7 +5815,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="45" t="s">
         <v>722</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -5860,10 +5860,10 @@
       <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="50" t="s">
         <v>725</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="48">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5889,7 +5889,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="45" t="s">
         <v>726</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -6025,7 +6025,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="45" t="s">
         <v>733</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -6111,10 +6111,10 @@
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="50" t="s">
         <v>738</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="48">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -6140,7 +6140,7 @@
     <row r="31" spans="2:10" ht="30.75">
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="45" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -6250,7 +6250,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="45" t="s">
         <v>722</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -6318,10 +6318,10 @@
       <c r="D39" s="73"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="48">
         <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -6347,7 +6347,7 @@
     <row r="41" spans="2:10" ht="30.75">
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="45" t="s">
         <v>73</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -6451,7 +6451,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="45" t="s">
         <v>722</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -6503,10 +6503,10 @@
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="50" t="s">
         <v>755</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="48">
         <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6532,7 +6532,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="45" t="s">
         <v>756</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -6639,7 +6639,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="45" t="s">
         <v>722</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -6708,10 +6708,10 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="50" t="s">
         <v>765</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="48">
         <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -6737,7 +6737,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="45" t="s">
         <v>756</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -6830,7 +6830,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="73"/>
       <c r="C64" s="73"/>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="45" t="s">
         <v>733</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -6876,19 +6876,21 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="J49:J57"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D25:D29"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="H8:H9"/>
@@ -6905,21 +6907,19 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="C49:C58"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="J49:J57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6929,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I55"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -6946,7 +6946,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>772</v>
       </c>
       <c r="D1" s="73"/>
@@ -6956,7 +6956,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>773</v>
       </c>
       <c r="D2" s="73"/>
@@ -6969,15 +6969,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>774</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -7007,31 +7007,31 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7047,10 +7047,10 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>776</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -7076,7 +7076,7 @@
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>777</v>
       </c>
@@ -7138,7 +7138,7 @@
     <row r="15" spans="2:10" ht="43.15" customHeight="1">
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="7" t="s">
         <v>781</v>
       </c>
@@ -7171,10 +7171,10 @@
       <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="50" t="s">
         <v>783</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -7200,7 +7200,7 @@
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="7" t="s">
         <v>784</v>
       </c>
@@ -7262,7 +7262,7 @@
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="7" t="s">
         <v>788</v>
       </c>
@@ -7280,10 +7280,10 @@
       <c r="D24" s="73"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="50" t="s">
         <v>789</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -7309,7 +7309,7 @@
     <row r="26" spans="2:10" ht="14.45" customHeight="1">
       <c r="B26" s="73"/>
       <c r="C26" s="73"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="7" t="s">
         <v>790</v>
       </c>
@@ -7368,10 +7368,10 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="50" t="s">
         <v>793</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -7397,7 +7397,7 @@
     <row r="31" spans="2:10" ht="14.45" customHeight="1">
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
-      <c r="D31" s="38"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="7" t="s">
         <v>794</v>
       </c>
@@ -7471,7 +7471,7 @@
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>798</v>
       </c>
@@ -7510,10 +7510,10 @@
       <c r="D37" s="73"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="50" t="s">
         <v>800</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -7539,7 +7539,7 @@
     <row r="39" spans="2:10" ht="14.45" customHeight="1">
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="38"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="7" t="s">
         <v>794</v>
       </c>
@@ -7631,7 +7631,7 @@
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
       <c r="B45" s="73"/>
       <c r="C45" s="73"/>
-      <c r="D45" s="38"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="7" t="s">
         <v>804</v>
       </c>
@@ -7682,10 +7682,10 @@
       <c r="D48" s="73"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="50" t="s">
         <v>807</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -7711,7 +7711,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
-      <c r="D50" s="38"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="7" t="s">
         <v>808</v>
       </c>
@@ -7785,7 +7785,7 @@
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
       <c r="B54" s="73"/>
       <c r="C54" s="73"/>
-      <c r="D54" s="38"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="7" t="s">
         <v>812</v>
       </c>
@@ -7808,6 +7808,33 @@
     <row r="56" spans="2:10" ht="15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="J38:J47"/>
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="D19:D21"/>
@@ -7824,33 +7851,6 @@
     <mergeCell ref="J18:J23"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="J30:J36"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7874,41 +7874,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.45" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="63" t="s">
         <v>813</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="64" t="s">
         <v>814</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.45" customHeight="1">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="60" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -7916,20 +7916,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="E4" s="71"/>
-      <c r="F4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="60"/>
+      <c r="I4" s="60"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25">
-      <c r="E5" s="71"/>
-      <c r="F5" s="58">
+      <c r="E5" s="43"/>
+      <c r="F5" s="38">
         <f>SUM(F8:F200)/2</f>
         <v>90</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="39">
         <f>SUM(I8:I200)/2</f>
         <v>10</v>
       </c>
@@ -7940,79 +7940,79 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>815</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="41">
         <f>SUM(F11:F19)</f>
         <v>26</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="41">
         <f>SUM(G11:G19)</f>
         <v>99.999999999999901</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="66">
+      <c r="I10" s="41">
         <f>SUM(I11:I19)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="59" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="64"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>817</v>
       </c>
@@ -8028,12 +8028,12 @@
       <c r="I11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="64"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="7" t="s">
         <v>819</v>
       </c>
@@ -8049,12 +8049,12 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="68"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B13" s="64"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="7" t="s">
         <v>820</v>
       </c>
@@ -8070,12 +8070,12 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B14" s="64"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="7" t="s">
         <v>821</v>
       </c>
@@ -8091,12 +8091,12 @@
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="64"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="7" t="s">
         <v>822</v>
       </c>
@@ -8112,12 +8112,12 @@
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="2:10" ht="72" customHeight="1">
-      <c r="B16" s="64"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="65" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -8135,12 +8135,12 @@
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>824</v>
       </c>
@@ -8156,12 +8156,12 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="7" t="s">
         <v>825</v>
       </c>
@@ -8177,12 +8177,12 @@
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="68"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B19" s="64"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="7" t="s">
         <v>826</v>
       </c>
@@ -8198,12 +8198,12 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="68"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="36"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -8211,39 +8211,39 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="58" t="s">
         <v>827</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="41">
         <f>SUM(F22:F24)</f>
         <v>8</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="41">
         <f>SUM(G22:G24)</f>
         <v>99.999999999999901</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="66">
+      <c r="I21" s="41">
         <f>SUM(I22:I24)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="59" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B22" s="64"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>829</v>
       </c>
@@ -8259,12 +8259,12 @@
       <c r="I22" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="68"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="7" t="s">
         <v>831</v>
       </c>
@@ -8280,12 +8280,12 @@
       <c r="I23" s="11">
         <v>1</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B24" s="64"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="65" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -8303,11 +8303,11 @@
       <c r="I24" s="11">
         <v>1</v>
       </c>
-      <c r="J24" s="68"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="64"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="11"/>
       <c r="E25" s="36"/>
       <c r="F25" s="11"/>
@@ -8316,39 +8316,39 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="58" t="s">
         <v>833</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="41">
         <f>SUM(F27:F33)</f>
         <v>10</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="41">
         <f>SUM(G27:G33)</f>
         <v>100.00000000000011</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="66">
+      <c r="I26" s="41">
         <f>SUM(I27:I33)</f>
         <v>3</v>
       </c>
-      <c r="J26" s="68" t="s">
+      <c r="J26" s="59" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="64"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>835</v>
       </c>
@@ -8364,12 +8364,12 @@
       <c r="I27" s="11">
         <v>1</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="64"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="7" t="s">
         <v>836</v>
       </c>
@@ -8385,12 +8385,12 @@
       <c r="I28" s="11">
         <v>1</v>
       </c>
-      <c r="J28" s="68"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="64"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="7" t="s">
         <v>837</v>
       </c>
@@ -8406,12 +8406,12 @@
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="68"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="64"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="7" t="s">
         <v>838</v>
       </c>
@@ -8427,12 +8427,12 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="68"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B31" s="64"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="65" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -8450,12 +8450,12 @@
       <c r="I31" s="11">
         <v>0</v>
       </c>
-      <c r="J31" s="68"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B32" s="64"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="7" t="s">
         <v>840</v>
       </c>
@@ -8471,12 +8471,12 @@
       <c r="I32" s="11">
         <v>0</v>
       </c>
-      <c r="J32" s="68"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B33" s="64"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="7" t="s">
         <v>841</v>
       </c>
@@ -8492,12 +8492,12 @@
       <c r="I33" s="11">
         <v>0</v>
       </c>
-      <c r="J33" s="68"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B34" s="64"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="36"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -8505,39 +8505,39 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="58" t="s">
         <v>842</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="41">
         <f>SUM(F36:F46)</f>
         <v>18</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="41">
         <f>SUM(G36:G46)</f>
         <v>100.00000000000001</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="66">
+      <c r="I35" s="41">
         <f>SUM(I36:I46)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="59" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B36" s="64"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="7" t="s">
         <v>844</v>
       </c>
@@ -8553,12 +8553,12 @@
       <c r="I36" s="11">
         <v>0</v>
       </c>
-      <c r="J36" s="68"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B37" s="64"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="7" t="s">
         <v>845</v>
       </c>
@@ -8574,12 +8574,12 @@
       <c r="I37" s="11">
         <v>0</v>
       </c>
-      <c r="J37" s="68"/>
+      <c r="J37" s="59"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="64"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="7" t="s">
         <v>846</v>
       </c>
@@ -8595,12 +8595,12 @@
       <c r="I38" s="11">
         <v>0</v>
       </c>
-      <c r="J38" s="68"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B39" s="64"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="7" t="s">
         <v>847</v>
       </c>
@@ -8616,12 +8616,12 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="59"/>
     </row>
     <row r="40" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B40" s="64"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="7" t="s">
         <v>848</v>
       </c>
@@ -8637,12 +8637,12 @@
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="68"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B41" s="64"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="7" t="s">
         <v>849</v>
       </c>
@@ -8658,12 +8658,12 @@
       <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="68"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="64"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="65" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -8681,12 +8681,12 @@
       <c r="I42" s="11">
         <v>1</v>
       </c>
-      <c r="J42" s="68"/>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="64"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="7" t="s">
         <v>851</v>
       </c>
@@ -8702,12 +8702,12 @@
       <c r="I43" s="11">
         <v>0</v>
       </c>
-      <c r="J43" s="68"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="64"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="7" t="s">
         <v>852</v>
       </c>
@@ -8723,12 +8723,12 @@
       <c r="I44" s="11">
         <v>0</v>
       </c>
-      <c r="J44" s="68"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B45" s="64"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="7" t="s">
         <v>853</v>
       </c>
@@ -8744,12 +8744,12 @@
       <c r="I45" s="11">
         <v>0</v>
       </c>
-      <c r="J45" s="68"/>
+      <c r="J45" s="59"/>
     </row>
     <row r="46" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B46" s="64"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="7" t="s">
         <v>854</v>
       </c>
@@ -8765,12 +8765,12 @@
       <c r="I46" s="11">
         <v>0</v>
       </c>
-      <c r="J46" s="68"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B47" s="64"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="36"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -8778,39 +8778,39 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="58" t="s">
         <v>855</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="72" t="s">
+      <c r="E48" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="41">
         <f>SUM(F49:F57)</f>
         <v>14</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="41">
         <f>SUM(G49:G57)</f>
         <v>99.999999999999901</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="66">
+      <c r="I48" s="41">
         <f>SUM(I49:I57)</f>
         <v>2</v>
       </c>
-      <c r="J48" s="68" t="s">
+      <c r="J48" s="59" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B49" s="64"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="7" t="s">
         <v>857</v>
       </c>
@@ -8826,12 +8826,12 @@
       <c r="I49" s="11">
         <v>0</v>
       </c>
-      <c r="J49" s="68"/>
+      <c r="J49" s="59"/>
     </row>
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B50" s="64"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="E50" s="7" t="s">
         <v>858</v>
       </c>
@@ -8847,12 +8847,12 @@
       <c r="I50" s="11">
         <v>0</v>
       </c>
-      <c r="J50" s="68"/>
+      <c r="J50" s="59"/>
     </row>
     <row r="51" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B51" s="64"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
       <c r="E51" s="7" t="s">
         <v>859</v>
       </c>
@@ -8868,12 +8868,12 @@
       <c r="I51" s="11">
         <v>0</v>
       </c>
-      <c r="J51" s="68"/>
+      <c r="J51" s="59"/>
     </row>
     <row r="52" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B52" s="64"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="7" t="s">
         <v>860</v>
       </c>
@@ -8889,12 +8889,12 @@
       <c r="I52" s="11">
         <v>0</v>
       </c>
-      <c r="J52" s="68"/>
+      <c r="J52" s="59"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="64"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="7" t="s">
         <v>861</v>
       </c>
@@ -8910,12 +8910,12 @@
       <c r="I53" s="11">
         <v>0</v>
       </c>
-      <c r="J53" s="68"/>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="64"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="65" t="s">
+      <c r="B54" s="58"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -8933,12 +8933,12 @@
       <c r="I54" s="11">
         <v>0</v>
       </c>
-      <c r="J54" s="68"/>
+      <c r="J54" s="59"/>
     </row>
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B55" s="64"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="7" t="s">
         <v>863</v>
       </c>
@@ -8954,12 +8954,12 @@
       <c r="I55" s="11">
         <v>1</v>
       </c>
-      <c r="J55" s="68"/>
+      <c r="J55" s="59"/>
     </row>
     <row r="56" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B56" s="64"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="7" t="s">
         <v>864</v>
       </c>
@@ -8975,12 +8975,12 @@
       <c r="I56" s="11">
         <v>1</v>
       </c>
-      <c r="J56" s="68"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B57" s="64"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="7" t="s">
         <v>865</v>
       </c>
@@ -8996,12 +8996,12 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-      <c r="J57" s="68"/>
+      <c r="J57" s="59"/>
     </row>
     <row r="58" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B58" s="64"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="36"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -9009,39 +9009,39 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="58" t="s">
         <v>866</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D59" s="65" t="s">
+      <c r="D59" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="72" t="s">
+      <c r="E59" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="66">
+      <c r="F59" s="41">
         <f>SUM(F60:F66)</f>
         <v>14</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="41">
         <f>SUM(G60:G66)</f>
         <v>100.00000000000011</v>
       </c>
       <c r="H59" s="11"/>
-      <c r="I59" s="66">
+      <c r="I59" s="41">
         <f>SUM(I60:I66)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="68" t="s">
+      <c r="J59" s="59" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B60" s="64"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="7" t="s">
         <v>868</v>
       </c>
@@ -9057,12 +9057,12 @@
       <c r="I60" s="11">
         <v>0</v>
       </c>
-      <c r="J60" s="68"/>
+      <c r="J60" s="59"/>
     </row>
     <row r="61" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B61" s="64"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="7" t="s">
         <v>869</v>
       </c>
@@ -9078,12 +9078,12 @@
       <c r="I61" s="11">
         <v>0</v>
       </c>
-      <c r="J61" s="68"/>
+      <c r="J61" s="59"/>
     </row>
     <row r="62" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B62" s="64"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="7" t="s">
         <v>870</v>
       </c>
@@ -9099,12 +9099,12 @@
       <c r="I62" s="11">
         <v>0</v>
       </c>
-      <c r="J62" s="68"/>
+      <c r="J62" s="59"/>
     </row>
     <row r="63" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B63" s="64"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="7" t="s">
         <v>871</v>
       </c>
@@ -9120,12 +9120,12 @@
       <c r="I63" s="11">
         <v>0</v>
       </c>
-      <c r="J63" s="68"/>
+      <c r="J63" s="59"/>
     </row>
     <row r="64" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B64" s="64"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="65" t="s">
+      <c r="B64" s="58"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -9143,12 +9143,12 @@
       <c r="I64" s="11">
         <v>0</v>
       </c>
-      <c r="J64" s="68"/>
+      <c r="J64" s="59"/>
     </row>
     <row r="65" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B65" s="64"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="7" t="s">
         <v>873</v>
       </c>
@@ -9164,12 +9164,12 @@
       <c r="I65" s="11">
         <v>0</v>
       </c>
-      <c r="J65" s="68"/>
+      <c r="J65" s="59"/>
     </row>
     <row r="66" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B66" s="64"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="7" t="s">
         <v>874</v>
       </c>
@@ -9185,34 +9185,26 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-      <c r="J66" s="68"/>
+      <c r="J66" s="59"/>
     </row>
     <row r="67" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B67" s="64"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
       <c r="E67" s="36"/>
     </row>
     <row r="68" spans="2:10" ht="15"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J35:J46"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C26:C34"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B48:B58"/>
     <mergeCell ref="D36:D41"/>
@@ -9229,16 +9221,24 @@
     <mergeCell ref="J26:J33"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D43:D47"/>
     <mergeCell ref="C35:C47"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J35:J46"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D65:D67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9262,41 +9262,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.45" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="63" t="s">
         <v>875</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="64" t="s">
         <v>876</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.45" customHeight="1">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="56" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="65" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -9304,18 +9304,18 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="F4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="F4" s="69"/>
+      <c r="I4" s="65"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25">
-      <c r="F5" s="58">
+      <c r="F5" s="38">
         <f>SUM(F8:F200)/2</f>
         <v>60</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="39">
         <f>SUM(I8:I200)/2</f>
         <v>40</v>
       </c>
@@ -9330,78 +9330,78 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="62" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="58" t="s">
         <v>878</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="42">
         <v>2</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="42">
         <f>SUM(G11:G14)</f>
         <v>100</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="67">
+      <c r="I10" s="42">
         <f>SUM(I11:I14)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="59" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="64"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>880</v>
       </c>
@@ -9417,12 +9417,12 @@
       <c r="I11" s="9">
         <v>4</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="64"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="7" t="s">
         <v>881</v>
       </c>
@@ -9438,12 +9438,12 @@
       <c r="I12" s="9">
         <v>2</v>
       </c>
-      <c r="J12" s="68"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B13" s="64"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="65" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -9461,12 +9461,12 @@
       <c r="I13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B14" s="64"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="7" t="s">
         <v>883</v>
       </c>
@@ -9482,51 +9482,51 @@
       <c r="I14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B15" s="64"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="58" t="s">
         <v>884</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="42">
         <f>SUM(F17:F23)</f>
         <v>14</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="42">
         <f>SUM(G17:G23)</f>
         <v>100.00000000000011</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="67">
+      <c r="I16" s="42">
         <f>SUM(I17:I23)</f>
         <v>12</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="68" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="64"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>886</v>
       </c>
@@ -9542,12 +9542,12 @@
       <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="69"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B18" s="64"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="7" t="s">
         <v>887</v>
       </c>
@@ -9563,12 +9563,12 @@
       <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="69"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B19" s="64"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="7" t="s">
         <v>888</v>
       </c>
@@ -9584,12 +9584,12 @@
       <c r="I19" s="9">
         <v>2</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="7" t="s">
         <v>889</v>
       </c>
@@ -9605,12 +9605,12 @@
       <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="J20" s="69"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -9628,12 +9628,12 @@
       <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="69"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B22" s="64"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>891</v>
       </c>
@@ -9649,12 +9649,12 @@
       <c r="I22" s="9">
         <v>1</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="68"/>
     </row>
     <row r="23" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="7" t="s">
         <v>892</v>
       </c>
@@ -9670,51 +9670,51 @@
       <c r="I23" s="9">
         <v>1</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B24" s="64"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="58" t="s">
         <v>893</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="42">
         <f>SUM(F26:F31)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="42">
         <f>SUM(G26:G31)</f>
         <v>100.0000000000002</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="67">
+      <c r="I25" s="42">
         <f>SUM(I26:I31)</f>
         <v>18</v>
       </c>
-      <c r="J25" s="69" t="s">
+      <c r="J25" s="68" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B26" s="64"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="7" t="s">
         <v>895</v>
       </c>
@@ -9730,12 +9730,12 @@
       <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="J26" s="69"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="64"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="7" t="s">
         <v>896</v>
       </c>
@@ -9751,12 +9751,12 @@
       <c r="I27" s="9">
         <v>3</v>
       </c>
-      <c r="J27" s="69"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="64"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="7" t="s">
         <v>897</v>
       </c>
@@ -9772,12 +9772,12 @@
       <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="69"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="64"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="65" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -9795,12 +9795,12 @@
       <c r="I29" s="9">
         <v>3</v>
       </c>
-      <c r="J29" s="69"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B30" s="64"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="7" t="s">
         <v>899</v>
       </c>
@@ -9816,12 +9816,12 @@
       <c r="I30" s="9">
         <v>3</v>
       </c>
-      <c r="J30" s="69"/>
+      <c r="J30" s="68"/>
     </row>
     <row r="31" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B31" s="64"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="7" t="s">
         <v>900</v>
       </c>
@@ -9837,51 +9837,51 @@
       <c r="I31" s="9">
         <v>3</v>
       </c>
-      <c r="J31" s="69"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B32" s="64"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="58" t="s">
         <v>901</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="42">
         <f>SUM(F34:F42)</f>
         <v>17</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="42">
         <f>SUM(G34:G42)</f>
         <v>99.999999999999901</v>
       </c>
       <c r="H33" s="9"/>
-      <c r="I33" s="67">
+      <c r="I33" s="42">
         <f>SUM(I34:I42)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="59" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B34" s="64"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="7" t="s">
         <v>903</v>
       </c>
@@ -9897,12 +9897,12 @@
       <c r="I34" s="9">
         <v>0</v>
       </c>
-      <c r="J34" s="68"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B35" s="64"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="7" t="s">
         <v>904</v>
       </c>
@@ -9918,12 +9918,12 @@
       <c r="I35" s="9">
         <v>0</v>
       </c>
-      <c r="J35" s="68"/>
+      <c r="J35" s="59"/>
     </row>
     <row r="36" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B36" s="64"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="7" t="s">
         <v>905</v>
       </c>
@@ -9939,12 +9939,12 @@
       <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="68"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B37" s="64"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="7" t="s">
         <v>906</v>
       </c>
@@ -9960,12 +9960,12 @@
       <c r="I37" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="68"/>
+      <c r="J37" s="59"/>
     </row>
     <row r="38" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B38" s="64"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
       <c r="E38" s="7" t="s">
         <v>907</v>
       </c>
@@ -9981,12 +9981,12 @@
       <c r="I38" s="9">
         <v>0</v>
       </c>
-      <c r="J38" s="68"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B39" s="64"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="65" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -10004,12 +10004,12 @@
       <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="59"/>
     </row>
     <row r="40" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B40" s="64"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="7" t="s">
         <v>909</v>
       </c>
@@ -10025,12 +10025,12 @@
       <c r="I40" s="9">
         <v>0</v>
       </c>
-      <c r="J40" s="68"/>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B41" s="64"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
       <c r="E41" s="7" t="s">
         <v>910</v>
       </c>
@@ -10046,12 +10046,12 @@
       <c r="I41" s="9">
         <v>0</v>
       </c>
-      <c r="J41" s="68"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="64"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
       <c r="E42" s="7" t="s">
         <v>911</v>
       </c>
@@ -10067,51 +10067,51 @@
       <c r="I42" s="9">
         <v>0</v>
       </c>
-      <c r="J42" s="68"/>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="64"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="58" t="s">
         <v>912</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="42">
         <f>SUM(F45:F53)</f>
         <v>22</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="42">
         <f>SUM(G45:G53)</f>
         <v>99.999999999999901</v>
       </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="67">
+      <c r="I44" s="42">
         <f>SUM(I45:I53)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="69" t="s">
+      <c r="J44" s="68" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B45" s="64"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="7" t="s">
         <v>914</v>
       </c>
@@ -10127,12 +10127,12 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="69"/>
+      <c r="J45" s="68"/>
     </row>
     <row r="46" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B46" s="64"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="7" t="s">
         <v>915</v>
       </c>
@@ -10148,12 +10148,12 @@
       <c r="I46" s="9">
         <v>0</v>
       </c>
-      <c r="J46" s="69"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B47" s="64"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
       <c r="E47" s="7" t="s">
         <v>916</v>
       </c>
@@ -10169,12 +10169,12 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-      <c r="J47" s="69"/>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B48" s="64"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="7" t="s">
         <v>917</v>
       </c>
@@ -10190,12 +10190,12 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-      <c r="J48" s="69"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="64"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="7" t="s">
         <v>918</v>
       </c>
@@ -10211,12 +10211,12 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-      <c r="J49" s="69"/>
+      <c r="J49" s="68"/>
     </row>
     <row r="50" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B50" s="64"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="65" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -10234,12 +10234,12 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="69"/>
+      <c r="J50" s="68"/>
     </row>
     <row r="51" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B51" s="64"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="7" t="s">
         <v>920</v>
       </c>
@@ -10255,12 +10255,12 @@
       <c r="I51" s="9">
         <v>0</v>
       </c>
-      <c r="J51" s="69"/>
+      <c r="J51" s="68"/>
     </row>
     <row r="52" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B52" s="64"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="7" t="s">
         <v>921</v>
       </c>
@@ -10276,12 +10276,12 @@
       <c r="I52" s="9">
         <v>0</v>
       </c>
-      <c r="J52" s="69"/>
+      <c r="J52" s="68"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="64"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="7" t="s">
         <v>922</v>
       </c>
@@ -10297,51 +10297,51 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="69"/>
+      <c r="J53" s="68"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="64"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="2:10" ht="15">
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="58" t="s">
         <v>923</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="48">
         <v>16.6666666666667</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="67">
+      <c r="F55" s="42">
         <f>SUM(F56:F59)</f>
         <v>4</v>
       </c>
-      <c r="G55" s="67">
+      <c r="G55" s="42">
         <f>SUM(G56:G59)</f>
         <v>100</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="67">
+      <c r="I55" s="42">
         <f>SUM(I56:I59)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="68" t="s">
+      <c r="J55" s="59" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="30.75">
-      <c r="B56" s="64"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>925</v>
       </c>
@@ -10357,12 +10357,12 @@
       <c r="I56" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="68"/>
+      <c r="J56" s="59"/>
     </row>
     <row r="57" spans="2:10" ht="45.75">
-      <c r="B57" s="64"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="7" t="s">
         <v>926</v>
       </c>
@@ -10378,12 +10378,12 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-      <c r="J57" s="68"/>
+      <c r="J57" s="59"/>
     </row>
     <row r="58" spans="2:10" ht="30.75">
-      <c r="B58" s="64"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="65" t="s">
+      <c r="B58" s="58"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -10401,12 +10401,12 @@
       <c r="I58" s="9">
         <v>0</v>
       </c>
-      <c r="J58" s="68"/>
+      <c r="J58" s="59"/>
     </row>
     <row r="59" spans="2:10" ht="15">
-      <c r="B59" s="64"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="7" t="s">
         <v>928</v>
       </c>
@@ -10422,21 +10422,39 @@
       <c r="I59" s="9">
         <v>0</v>
       </c>
-      <c r="J59" s="68"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="2:10" ht="15">
-      <c r="B60" s="64"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61" spans="2:10" ht="15"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="J33:J42"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="J44:J53"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J16:J23"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B44:B54"/>
@@ -10453,29 +10471,11 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C33:C43"/>
     <mergeCell ref="D45:D49"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="J33:J42"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="J44:J53"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D59:D60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10485,7 +10485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -10504,7 +10504,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>929</v>
       </c>
       <c r="D1" s="73"/>
@@ -10514,7 +10514,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>930</v>
       </c>
       <c r="D2" s="73"/>
@@ -10527,15 +10527,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>774</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="71" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -10543,7 +10543,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="F4" s="48"/>
+      <c r="F4" s="55"/>
       <c r="I4" s="74"/>
       <c r="J4" t="s">
         <v>9</v>
@@ -10563,31 +10563,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10596,17 +10596,17 @@
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="73"/>
       <c r="I9" s="74"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>931</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10632,7 +10632,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>932</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -10742,7 +10742,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="45" t="s">
         <v>938</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -10790,10 +10790,10 @@
       <c r="D18" s="73"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="50" t="s">
         <v>941</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -10819,7 +10819,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="45" t="s">
         <v>942</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -10929,7 +10929,7 @@
     <row r="25" spans="2:10" ht="30.75">
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="45" t="s">
         <v>938</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -10977,10 +10977,10 @@
       <c r="D27" s="73"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="50" t="s">
         <v>950</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -11006,7 +11006,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="45" t="s">
         <v>951</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -11090,7 +11090,7 @@
     <row r="33" spans="2:10" ht="30.75">
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="45" t="s">
         <v>938</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -11117,10 +11117,10 @@
       <c r="D34" s="73"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="50" t="s">
         <v>957</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -11146,7 +11146,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="45" t="s">
         <v>958</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -11239,7 +11239,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="45" t="s">
         <v>938</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -11284,10 +11284,10 @@
       <c r="D42" s="73"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="50" t="s">
         <v>965</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -11313,7 +11313,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="45" t="s">
         <v>966</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -11446,7 +11446,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="45" t="s">
         <v>938</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -11517,10 +11517,10 @@
       <c r="D53" s="73"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="50" t="s">
         <v>976</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="48">
         <v>16.666666666666671</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -11546,7 +11546,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="45" t="s">
         <v>977</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -11696,7 +11696,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="73"/>
       <c r="C62" s="73"/>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="45" t="s">
         <v>938</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -11782,34 +11782,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J54:J65"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="B54:B66"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B35:B42"/>
@@ -11826,6 +11798,34 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="B54:B66"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11853,7 +11853,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="73"/>
@@ -11863,7 +11863,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="73"/>
@@ -11876,15 +11876,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -11912,31 +11912,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11952,10 +11952,10 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11981,7 +11981,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -12075,7 +12075,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="45" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -12134,10 +12134,10 @@
       <c r="D19" s="73"/>
     </row>
     <row r="20" spans="2:10" ht="15">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="48">
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -12163,7 +12163,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -12275,7 +12275,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="45" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -12334,10 +12334,10 @@
       <c r="D30" s="73"/>
     </row>
     <row r="31" spans="2:10" ht="15">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="48">
         <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -12363,7 +12363,7 @@
     <row r="32" spans="2:10">
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -12457,7 +12457,7 @@
     <row r="37" spans="2:10">
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
-      <c r="D37" s="38"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
@@ -12496,10 +12496,10 @@
       <c r="D39" s="73"/>
     </row>
     <row r="40" spans="2:10" ht="15">
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="48">
         <v>16</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -12525,7 +12525,7 @@
     <row r="41" spans="2:10">
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -12619,7 +12619,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="7" t="s">
         <v>91</v>
       </c>
@@ -12676,10 +12676,10 @@
       <c r="D49" s="73"/>
     </row>
     <row r="50" spans="2:10" ht="15">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="48">
         <v>14</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -12705,7 +12705,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="45" t="s">
         <v>66</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -12799,7 +12799,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="73"/>
       <c r="C56" s="73"/>
-      <c r="D56" s="38"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>100</v>
       </c>
@@ -12856,10 +12856,10 @@
       <c r="D59" s="73"/>
     </row>
     <row r="60" spans="2:10" ht="15">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="48">
         <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -12885,7 +12885,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="73"/>
       <c r="C61" s="73"/>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -12979,7 +12979,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="73"/>
       <c r="C66" s="73"/>
-      <c r="D66" s="38"/>
+      <c r="D66" s="45"/>
       <c r="E66" s="7" t="s">
         <v>109</v>
       </c>
@@ -13018,10 +13018,10 @@
       <c r="D68" s="73"/>
     </row>
     <row r="69" spans="2:10" ht="15">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="48">
         <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -13047,7 +13047,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="73"/>
       <c r="C70" s="73"/>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="45" t="s">
         <v>112</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -13141,7 +13141,7 @@
     <row r="75" spans="2:10" ht="28.9">
       <c r="B75" s="73"/>
       <c r="C75" s="73"/>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="45" t="s">
         <v>118</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -13183,6 +13183,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B69:B77"/>
     <mergeCell ref="B50:B59"/>
     <mergeCell ref="J10:J18"/>
@@ -13199,39 +13232,6 @@
     <mergeCell ref="J69:J76"/>
     <mergeCell ref="C60:C68"/>
     <mergeCell ref="J50:J58"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D41:D44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13259,7 +13259,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D1" s="73"/>
@@ -13269,7 +13269,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="73"/>
@@ -13282,15 +13282,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -13318,31 +13318,31 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13353,15 +13353,15 @@
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13387,7 +13387,7 @@
     <row r="11" spans="2:10" ht="15">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -13484,7 +13484,7 @@
     <row r="17" spans="2:10" ht="15">
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -13547,10 +13547,10 @@
       <c r="C21" s="73"/>
     </row>
     <row r="22" spans="2:10" ht="15">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="48">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -13576,7 +13576,7 @@
     <row r="23" spans="2:10" ht="15">
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="45" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -13673,7 +13673,7 @@
     <row r="28" spans="2:10" ht="15">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -13725,10 +13725,10 @@
       <c r="C31" s="73"/>
     </row>
     <row r="32" spans="2:10" ht="15">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="48">
         <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -13754,7 +13754,7 @@
     <row r="33" spans="2:10" ht="15">
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="45" t="s">
         <v>148</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -13860,7 +13860,7 @@
     <row r="38" spans="2:10" ht="15">
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -13915,10 +13915,10 @@
       <c r="C41" s="73"/>
     </row>
     <row r="42" spans="2:10" ht="15">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="48">
         <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -13944,7 +13944,7 @@
     <row r="43" spans="2:10" ht="15">
       <c r="B43" s="73"/>
       <c r="C43" s="73"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="45" t="s">
         <v>158</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -14038,7 +14038,7 @@
     <row r="48" spans="2:10" ht="15">
       <c r="B48" s="73"/>
       <c r="C48" s="73"/>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -14087,10 +14087,10 @@
       <c r="C51" s="73"/>
     </row>
     <row r="52" spans="2:10" ht="15">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="48">
         <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -14116,7 +14116,7 @@
     <row r="53" spans="2:10" ht="15">
       <c r="B53" s="73"/>
       <c r="C53" s="73"/>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="45" t="s">
         <v>158</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -14219,7 +14219,7 @@
     <row r="59" spans="2:10" ht="15">
       <c r="B59" s="73"/>
       <c r="C59" s="73"/>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -14291,10 +14291,10 @@
       <c r="C63" s="73"/>
     </row>
     <row r="64" spans="2:10" ht="15">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="48">
         <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -14320,7 +14320,7 @@
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="73"/>
       <c r="C65" s="73"/>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="45" t="s">
         <v>179</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -14420,7 +14420,7 @@
     <row r="70" spans="2:10" ht="15">
       <c r="B70" s="73"/>
       <c r="C70" s="73"/>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -14469,10 +14469,10 @@
       <c r="C73" s="73"/>
     </row>
     <row r="74" spans="2:10" ht="15">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="48">
         <v>5</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -14498,7 +14498,7 @@
     <row r="75" spans="2:10" ht="15">
       <c r="B75" s="73"/>
       <c r="C75" s="73"/>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="45" t="s">
         <v>158</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -14562,7 +14562,7 @@
     <row r="79" spans="2:10" ht="14.45" customHeight="1">
       <c r="B79" s="73"/>
       <c r="C79" s="73"/>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -14587,39 +14587,6 @@
     <row r="82" spans="4:4" ht="15"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J10:J20"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J22:J30"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="J74:J79"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="J64:J72"/>
-    <mergeCell ref="J42:J50"/>
-    <mergeCell ref="J52:J62"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D79:D81"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E8:E9"/>
@@ -14636,6 +14603,39 @@
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B52:B63"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="J64:J72"/>
+    <mergeCell ref="J42:J50"/>
+    <mergeCell ref="J52:J62"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J22:J30"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14645,7 +14645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -14663,7 +14663,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>194</v>
       </c>
       <c r="D1" s="73"/>
@@ -14673,7 +14673,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="73"/>
@@ -14686,15 +14686,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>196</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -14722,31 +14722,31 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14757,15 +14757,15 @@
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -14791,7 +14791,7 @@
     <row r="11" spans="2:10" ht="15">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>200</v>
       </c>
@@ -14901,7 +14901,7 @@
     <row r="17" spans="2:10" ht="15">
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="7" t="s">
         <v>207</v>
       </c>
@@ -14958,10 +14958,10 @@
       <c r="D20" s="73"/>
     </row>
     <row r="21" spans="2:10" ht="15">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="48">
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -14987,7 +14987,7 @@
     <row r="22" spans="2:10" ht="15">
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="7" t="s">
         <v>211</v>
       </c>
@@ -15097,7 +15097,7 @@
     <row r="28" spans="2:10" ht="15">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
-      <c r="D28" s="38"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="7" t="s">
         <v>217</v>
       </c>
@@ -15154,10 +15154,10 @@
       <c r="D31" s="73"/>
     </row>
     <row r="32" spans="2:10" ht="15">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="48">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -15183,7 +15183,7 @@
     <row r="33" spans="2:10" ht="15">
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="7" t="s">
         <v>221</v>
       </c>
@@ -15290,7 +15290,7 @@
     <row r="39" spans="2:10" ht="15">
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="38"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="7" t="s">
         <v>227</v>
       </c>
@@ -15341,10 +15341,10 @@
       <c r="D42" s="73"/>
     </row>
     <row r="43" spans="2:10" ht="15">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="48">
         <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -15370,7 +15370,7 @@
     <row r="44" spans="2:10" ht="15">
       <c r="B44" s="73"/>
       <c r="C44" s="73"/>
-      <c r="D44" s="38"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="7" t="s">
         <v>231</v>
       </c>
@@ -15480,7 +15480,7 @@
     <row r="50" spans="2:10" ht="15">
       <c r="B50" s="73"/>
       <c r="C50" s="73"/>
-      <c r="D50" s="38"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="7" t="s">
         <v>237</v>
       </c>
@@ -15531,10 +15531,10 @@
       <c r="D53" s="73"/>
     </row>
     <row r="54" spans="2:10" ht="15">
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="48">
         <v>12</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -15560,7 +15560,7 @@
     <row r="55" spans="2:10" ht="15">
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
-      <c r="D55" s="38"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="7" t="s">
         <v>241</v>
       </c>
@@ -15649,7 +15649,7 @@
     <row r="60" spans="2:10" ht="30.75">
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
-      <c r="D60" s="38"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="7" t="s">
         <v>246</v>
       </c>
@@ -15706,10 +15706,10 @@
       <c r="D63" s="73"/>
     </row>
     <row r="64" spans="2:10" ht="15">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="48">
         <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -15735,7 +15735,7 @@
     <row r="65" spans="2:10" ht="15">
       <c r="B65" s="73"/>
       <c r="C65" s="73"/>
-      <c r="D65" s="38"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="7" t="s">
         <v>250</v>
       </c>
@@ -15839,7 +15839,7 @@
     <row r="71" spans="2:10" ht="15">
       <c r="B71" s="73"/>
       <c r="C71" s="73"/>
-      <c r="D71" s="38"/>
+      <c r="D71" s="45"/>
       <c r="E71" s="7" t="s">
         <v>256</v>
       </c>
@@ -15911,10 +15911,10 @@
       <c r="D75" s="73"/>
     </row>
     <row r="76" spans="2:10" ht="15">
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="48">
         <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -15940,7 +15940,7 @@
     <row r="77" spans="2:10">
       <c r="B77" s="73"/>
       <c r="C77" s="73"/>
-      <c r="D77" s="38"/>
+      <c r="D77" s="45"/>
       <c r="E77" s="7" t="s">
         <v>261</v>
       </c>
@@ -16038,7 +16038,7 @@
     <row r="83" spans="2:10" ht="15">
       <c r="B83" s="73"/>
       <c r="C83" s="73"/>
-      <c r="D83" s="38"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="7" t="s">
         <v>267</v>
       </c>
@@ -16101,10 +16101,10 @@
       <c r="D87" s="73"/>
     </row>
     <row r="88" spans="2:10" ht="15">
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C88" s="43">
+      <c r="C88" s="48">
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -16130,7 +16130,7 @@
     <row r="89" spans="2:10" ht="15">
       <c r="B89" s="73"/>
       <c r="C89" s="73"/>
-      <c r="D89" s="38"/>
+      <c r="D89" s="45"/>
       <c r="E89" s="7" t="s">
         <v>272</v>
       </c>
@@ -16207,7 +16207,7 @@
     <row r="94" spans="2:10" ht="15">
       <c r="B94" s="73"/>
       <c r="C94" s="73"/>
-      <c r="D94" s="38"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="7" t="s">
         <v>277</v>
       </c>
@@ -16261,10 +16261,10 @@
       <c r="D97" s="73"/>
     </row>
     <row r="98" spans="2:10" ht="15">
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="43">
+      <c r="C98" s="48">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -16290,7 +16290,7 @@
     <row r="99" spans="2:10" ht="15">
       <c r="B99" s="73"/>
       <c r="C99" s="73"/>
-      <c r="D99" s="38"/>
+      <c r="D99" s="45"/>
       <c r="E99" s="7" t="s">
         <v>281</v>
       </c>
@@ -16373,7 +16373,7 @@
     <row r="104" spans="2:10" ht="15">
       <c r="B104" s="73"/>
       <c r="C104" s="73"/>
-      <c r="D104" s="38"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="7" t="s">
         <v>286</v>
       </c>
@@ -16407,21 +16407,34 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="J76:J86"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C98:C106"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="J88:J96"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="J64:J74"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="J54:J62"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="B21:B31"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C64:C75"/>
     <mergeCell ref="J10:J19"/>
@@ -16438,34 +16451,21 @@
     <mergeCell ref="D65:D69"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B21:B31"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="J54:J62"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J76:J86"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C98:C106"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="J88:J96"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="J64:J74"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="C76:C87"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="J43:J52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16492,7 +16492,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>288</v>
       </c>
       <c r="D1" s="73"/>
@@ -16502,7 +16502,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>289</v>
       </c>
       <c r="D2" s="73"/>
@@ -16515,15 +16515,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -16549,31 +16549,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16589,10 +16589,10 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -16619,7 +16619,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -16719,7 +16719,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -16773,10 +16773,10 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="15">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="50" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="48">
         <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -16804,7 +16804,7 @@
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -16910,7 +16910,7 @@
     <row r="28" spans="2:10" ht="15">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -16984,10 +16984,10 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="48">
         <v>2.5</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -17015,7 +17015,7 @@
     <row r="34" spans="2:10" ht="28.9">
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -17085,7 +17085,7 @@
     <row r="38" spans="2:10" ht="15">
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -17123,10 +17123,10 @@
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="48">
         <v>2.5</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -17154,7 +17154,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="73"/>
       <c r="C42" s="73"/>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -17238,7 +17238,7 @@
     <row r="47" spans="2:10" ht="15">
       <c r="B47" s="73"/>
       <c r="C47" s="73"/>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -17276,10 +17276,10 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="48">
         <v>2.5</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -17307,7 +17307,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -17391,7 +17391,7 @@
     <row r="56" spans="2:10" ht="30.75">
       <c r="B56" s="73"/>
       <c r="C56" s="73"/>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -17429,10 +17429,10 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="2:10" ht="15">
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="48">
         <v>2.5</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -17460,7 +17460,7 @@
     <row r="60" spans="2:10" ht="28.9" customHeight="1">
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -17560,7 +17560,7 @@
     <row r="66" spans="2:10" ht="30.75">
       <c r="B66" s="73"/>
       <c r="C66" s="73"/>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -17614,10 +17614,10 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:10" ht="15">
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="48">
         <v>20</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -17645,7 +17645,7 @@
     <row r="71" spans="2:10" ht="14.45" customHeight="1">
       <c r="B71" s="73"/>
       <c r="C71" s="73"/>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="45" t="s">
         <v>294</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -17745,7 +17745,7 @@
     <row r="77" spans="2:10" ht="15">
       <c r="B77" s="73"/>
       <c r="C77" s="73"/>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="45" t="s">
         <v>301</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -17796,16 +17796,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J70:J79"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C21:C32"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="C59:C69"/>
-    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="D60:D64"/>
     <mergeCell ref="J10:J19"/>
@@ -17822,29 +17835,16 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="J50:J57"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="J70:J79"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C21:C32"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="C59:C69"/>
+    <mergeCell ref="C70:C80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17872,7 +17872,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>360</v>
       </c>
       <c r="D1" s="73"/>
@@ -17882,7 +17882,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>361</v>
       </c>
       <c r="D2" s="73"/>
@@ -17895,15 +17895,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -17931,31 +17931,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17966,15 +17966,15 @@
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -17999,7 +17999,7 @@
     <row r="11" spans="2:10" ht="30.75">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>365</v>
       </c>
@@ -18061,7 +18061,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7" t="s">
         <v>370</v>
       </c>
@@ -18088,10 +18088,10 @@
       <c r="D18" s="73"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="48">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -18119,7 +18119,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="7" t="s">
         <v>373</v>
       </c>
@@ -18187,7 +18187,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="7" t="s">
         <v>378</v>
       </c>
@@ -18214,10 +18214,10 @@
       <c r="D27" s="73"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="48">
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -18242,7 +18242,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="7" t="s">
         <v>381</v>
       </c>
@@ -18331,7 +18331,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="7" t="s">
         <v>387</v>
       </c>
@@ -18373,10 +18373,10 @@
       <c r="D38" s="73"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="48">
         <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -18401,7 +18401,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
-      <c r="D40" s="38"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="7" t="s">
         <v>391</v>
       </c>
@@ -18490,7 +18490,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="7" t="s">
         <v>397</v>
       </c>
@@ -18535,10 +18535,10 @@
       <c r="D49" s="73"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="48">
         <v>10</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -18563,7 +18563,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
-      <c r="D51" s="38"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="7" t="s">
         <v>401</v>
       </c>
@@ -18622,7 +18622,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
-      <c r="D55" s="38"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="7" t="s">
         <v>405</v>
       </c>
@@ -18655,10 +18655,10 @@
       <c r="D57" s="73"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="48">
         <v>10</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -18683,7 +18683,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="73"/>
       <c r="C59" s="73"/>
-      <c r="D59" s="38"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="7" t="s">
         <v>408</v>
       </c>
@@ -18757,7 +18757,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="73"/>
       <c r="C64" s="73"/>
-      <c r="D64" s="38"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="7" t="s">
         <v>413</v>
       </c>
@@ -18800,11 +18800,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="J28:J37"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="J39:J48"/>
@@ -18821,29 +18839,11 @@
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="J19:J26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="J28:J37"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D59:D62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18854,7 +18854,7 @@
   <dimension ref="B1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -18870,7 +18870,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>416</v>
       </c>
       <c r="D1" s="73"/>
@@ -18880,7 +18880,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>417</v>
       </c>
       <c r="D2" s="73"/>
@@ -18893,15 +18893,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>418</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -18929,31 +18929,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -18969,10 +18969,10 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -18998,7 +18998,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="7" t="s">
         <v>422</v>
       </c>
@@ -19075,7 +19075,7 @@
     <row r="16" spans="2:10" ht="28.9">
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7" t="s">
         <v>427</v>
       </c>
@@ -19123,10 +19123,10 @@
       <c r="D19" s="73"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="48">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -19152,7 +19152,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="7" t="s">
         <v>431</v>
       </c>
@@ -19244,7 +19244,7 @@
     <row r="27" spans="2:10" ht="28.9">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="7" t="s">
         <v>437</v>
       </c>
@@ -19307,10 +19307,10 @@
       <c r="D31" s="73"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="48">
         <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -19336,7 +19336,7 @@
     <row r="33" spans="2:10" ht="28.9">
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="7" t="s">
         <v>442</v>
       </c>
@@ -19443,7 +19443,7 @@
     <row r="40" spans="2:10" ht="28.9">
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
-      <c r="D40" s="38"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="7" t="s">
         <v>449</v>
       </c>
@@ -19506,10 +19506,10 @@
       <c r="D44" s="73"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="48">
         <v>20</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -19535,7 +19535,7 @@
     <row r="46" spans="2:10" ht="28.9">
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="7" t="s">
         <v>454</v>
       </c>
@@ -19612,7 +19612,7 @@
     <row r="51" spans="2:10" ht="28.9">
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
-      <c r="D51" s="38"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="7" t="s">
         <v>459</v>
       </c>
@@ -19660,10 +19660,10 @@
       <c r="D54" s="73"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="48">
         <v>20</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -19689,7 +19689,7 @@
     <row r="56" spans="2:10" ht="28.9">
       <c r="B56" s="73"/>
       <c r="C56" s="73"/>
-      <c r="D56" s="38"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="7" t="s">
         <v>463</v>
       </c>
@@ -19751,7 +19751,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="73"/>
       <c r="C60" s="73"/>
-      <c r="D60" s="38"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="7" t="s">
         <v>467</v>
       </c>
@@ -19785,13 +19785,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="J55:J61"/>
-    <mergeCell ref="J32:J43"/>
-    <mergeCell ref="J45:J53"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="D27:D31"/>
@@ -19808,22 +19817,13 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J55:J61"/>
+    <mergeCell ref="J32:J43"/>
+    <mergeCell ref="J45:J53"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="C32:C44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19850,7 +19850,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>469</v>
       </c>
       <c r="D1" s="73"/>
@@ -19860,7 +19860,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>470</v>
       </c>
       <c r="D2" s="73"/>
@@ -19873,15 +19873,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -19909,31 +19909,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -19949,10 +19949,10 @@
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10" ht="15">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -19978,7 +19978,7 @@
     <row r="11" spans="2:10" ht="30.75">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>475</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -20046,7 +20046,7 @@
     <row r="15" spans="2:10" ht="30.75">
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="45" t="s">
         <v>480</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -20083,10 +20083,10 @@
       <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:10" ht="15">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="48">
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -20112,7 +20112,7 @@
     <row r="19" spans="2:10" ht="15">
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="45" t="s">
         <v>484</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -20196,7 +20196,7 @@
     <row r="24" spans="2:10" ht="15">
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="45" t="s">
         <v>490</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -20249,10 +20249,10 @@
       <c r="D27" s="73"/>
     </row>
     <row r="28" spans="2:10" ht="15">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="48">
         <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -20278,7 +20278,7 @@
     <row r="29" spans="2:10" ht="15">
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="45" t="s">
         <v>495</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -20362,7 +20362,7 @@
     <row r="34" spans="2:10" ht="30.75">
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="45" t="s">
         <v>490</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -20415,10 +20415,10 @@
       <c r="D37" s="73"/>
     </row>
     <row r="38" spans="2:10" ht="15">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="48">
         <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -20444,7 +20444,7 @@
     <row r="39" spans="2:10" ht="15">
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="45" t="s">
         <v>505</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -20560,7 +20560,7 @@
     <row r="46" spans="2:10" ht="15">
       <c r="B46" s="73"/>
       <c r="C46" s="73"/>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="45" t="s">
         <v>490</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -20629,10 +20629,10 @@
       <c r="D50" s="73"/>
     </row>
     <row r="51" spans="2:10" ht="15">
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="48">
         <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -20658,7 +20658,7 @@
     <row r="52" spans="2:10" ht="30.75">
       <c r="B52" s="73"/>
       <c r="C52" s="73"/>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="45" t="s">
         <v>475</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -20742,7 +20742,7 @@
     <row r="57" spans="2:10" ht="15">
       <c r="B57" s="73"/>
       <c r="C57" s="73"/>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="45" t="s">
         <v>490</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -20795,10 +20795,10 @@
       <c r="D60" s="73"/>
     </row>
     <row r="61" spans="2:10" ht="15">
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="50" t="s">
         <v>526</v>
       </c>
-      <c r="C61" s="43">
+      <c r="C61" s="48">
         <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -20824,7 +20824,7 @@
     <row r="62" spans="2:10" ht="15">
       <c r="B62" s="73"/>
       <c r="C62" s="73"/>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="45" t="s">
         <v>475</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -20908,7 +20908,7 @@
     <row r="67" spans="2:10" ht="15">
       <c r="B67" s="73"/>
       <c r="C67" s="73"/>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="45" t="s">
         <v>532</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -20961,10 +20961,10 @@
       <c r="D70" s="73"/>
     </row>
     <row r="71" spans="2:10" ht="15">
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="48">
         <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -20990,7 +20990,7 @@
     <row r="72" spans="2:10" ht="30.75">
       <c r="B72" s="73"/>
       <c r="C72" s="73"/>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="45" t="s">
         <v>495</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -21090,7 +21090,7 @@
     <row r="78" spans="2:10" ht="30.75">
       <c r="B78" s="73"/>
       <c r="C78" s="73"/>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="45" t="s">
         <v>543</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -21250,6 +21250,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="J71:J80"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="J28:J36"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C61:C70"/>
@@ -21266,39 +21299,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="C38:C50"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="J61:J69"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="J71:J80"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C18:C27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21326,7 +21326,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="51" t="s">
         <v>562</v>
       </c>
       <c r="D1" s="73"/>
@@ -21336,7 +21336,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="52" t="s">
         <v>563</v>
       </c>
       <c r="D2" s="73"/>
@@ -21349,15 +21349,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="51" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -21385,31 +21385,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -21420,15 +21420,15 @@
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="50" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="48">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -21454,7 +21454,7 @@
     <row r="11" spans="2:10" ht="30.75">
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="45" t="s">
         <v>567</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -21539,7 +21539,7 @@
     <row r="16" spans="2:10" ht="30.75">
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -21583,10 +21583,10 @@
       <c r="D18" s="73"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="48">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -21612,7 +21612,7 @@
     <row r="20" spans="2:10" ht="30.75">
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="45" t="s">
         <v>575</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -21709,7 +21709,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="73"/>
       <c r="C25" s="73"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -21768,10 +21768,10 @@
       <c r="D28" s="73"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="50" t="s">
         <v>584</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="48">
         <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -21797,7 +21797,7 @@
     <row r="30" spans="2:10">
       <c r="B30" s="73"/>
       <c r="C30" s="73"/>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="45" t="s">
         <v>585</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -21906,7 +21906,7 @@
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -21951,10 +21951,10 @@
       <c r="D37" s="73"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="48">
         <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -21980,7 +21980,7 @@
     <row r="39" spans="2:10" ht="30.75">
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="45" t="s">
         <v>593</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -22064,7 +22064,7 @@
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
       <c r="B43" s="73"/>
       <c r="C43" s="73"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -22107,10 +22107,10 @@
       <c r="D45" s="73"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="50" t="s">
         <v>600</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="48">
         <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -22136,7 +22136,7 @@
     <row r="47" spans="2:10" ht="30.75">
       <c r="B47" s="73"/>
       <c r="C47" s="73"/>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="45" t="s">
         <v>601</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -22221,7 +22221,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="73"/>
       <c r="C52" s="73"/>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -22283,10 +22283,10 @@
       <c r="D55" s="73"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="50" t="s">
         <v>609</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="48">
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -22312,7 +22312,7 @@
     <row r="57" spans="2:10" ht="30.75">
       <c r="B57" s="73"/>
       <c r="C57" s="73"/>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="45" t="s">
         <v>610</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -22415,7 +22415,7 @@
     <row r="62" spans="2:10" ht="28.9" customHeight="1">
       <c r="B62" s="73"/>
       <c r="C62" s="73"/>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -22460,10 +22460,10 @@
       <c r="D64" s="73"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="50" t="s">
         <v>618</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="48">
         <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -22489,7 +22489,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="73"/>
       <c r="C66" s="73"/>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="45" t="s">
         <v>619</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -22588,7 +22588,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="73"/>
       <c r="C71" s="73"/>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -22652,10 +22652,10 @@
       <c r="D74" s="73"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="50" t="s">
         <v>628</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="48">
         <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -22681,7 +22681,7 @@
     <row r="76" spans="2:10">
       <c r="B76" s="73"/>
       <c r="C76" s="73"/>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="45" t="s">
         <v>629</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -22784,7 +22784,7 @@
     <row r="81" spans="2:10" ht="28.9" customHeight="1">
       <c r="B81" s="73"/>
       <c r="C81" s="73"/>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -22829,10 +22829,10 @@
       <c r="D83" s="73"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="50" t="s">
         <v>637</v>
       </c>
-      <c r="C84" s="43">
+      <c r="C84" s="48">
         <v>11</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -22858,7 +22858,7 @@
     <row r="85" spans="2:10" ht="30.75">
       <c r="B85" s="73"/>
       <c r="C85" s="73"/>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="45" t="s">
         <v>638</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -22957,7 +22957,7 @@
     <row r="90" spans="2:10" ht="30.75">
       <c r="B90" s="73"/>
       <c r="C90" s="73"/>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -23020,33 +23020,22 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="J84:J92"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="J46:J54"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="J75:J82"/>
-    <mergeCell ref="J38:J44"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="C84:C93"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B84:B93"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="J56:J63"/>
+    <mergeCell ref="J65:J73"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C10:C18"/>
@@ -23063,28 +23052,49 @@
     <mergeCell ref="B38:B45"/>
     <mergeCell ref="C46:C55"/>
     <mergeCell ref="B46:B55"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="J56:J63"/>
-    <mergeCell ref="J65:J73"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C84:C93"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="J75:J82"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="J84:J92"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="J46:J54"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="D85:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="dd82ada882069ac16fe601160e97ab22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9368a896100fd3a647c25a75e64d9ec" ns2:_="" ns3:_="">
     <xsd:import namespace="fcacaf0f-47d6-4512-8755-33aa81f58d6d"/>
@@ -23307,16 +23317,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -23327,11 +23327,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72954195-496B-4CC9-8F19-14BA3C9B6939}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF758C54-36DD-4E26-BBB1-4DC31FD046CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF758C54-36DD-4E26-BBB1-4DC31FD046CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72954195-496B-4CC9-8F19-14BA3C9B6939}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/excels/DAW_libro.xlsx
+++ b/excels/DAW_libro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29423"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvaedu.sharepoint.com/sites/Section_46017675-C2-Dept.Informtica/Documentos compartidos/Dept. Informàtica/curso2025_2026/PCCF_PDs/PD Esquemas Generales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03FD228-AED0-4602-80D1-B9CC65052EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA3B954-FCAC-4306-B6C6-827897D7B04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introducción a la Nube Pública" sheetId="1" r:id="rId1"/>
@@ -3300,32 +3300,51 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3336,44 +3355,32 @@
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3384,13 +3391,6 @@
     <xf numFmtId="2" fontId="0" fillId="1" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
@@ -3716,7 +3716,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="76"/>
@@ -3726,7 +3726,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="76"/>
@@ -3739,15 +3739,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3769,31 +3769,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3804,15 +3804,15 @@
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3837,7 +3837,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3887,7 +3887,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="7" t="s">
         <v>25</v>
       </c>
@@ -3920,10 +3920,10 @@
       <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="52">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -3948,7 +3948,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
@@ -4007,7 +4007,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
-      <c r="D23" s="45"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="7" t="s">
         <v>33</v>
       </c>
@@ -4046,10 +4046,10 @@
       <c r="D25" s="76"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="52">
         <v>35</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -4074,7 +4074,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="45"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="7" t="s">
         <v>36</v>
       </c>
@@ -4136,7 +4136,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="45"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="7" t="s">
         <v>40</v>
       </c>
@@ -4172,10 +4172,10 @@
       <c r="D33" s="76"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="52">
         <v>35</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4200,7 +4200,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="7" t="s">
         <v>43</v>
       </c>
@@ -4262,7 +4262,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="45"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="7" t="s">
         <v>47</v>
       </c>
@@ -4296,24 +4296,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J34:J40"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J26:J32"/>
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B8:B9"/>
@@ -4325,11 +4312,24 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="B34:B41"/>
-    <mergeCell ref="J34:J40"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J26:J32"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4356,7 +4356,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>648</v>
       </c>
       <c r="D1" s="76"/>
@@ -4366,7 +4366,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>649</v>
       </c>
       <c r="D2" s="76"/>
@@ -4379,15 +4379,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -4413,31 +4413,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4453,10 +4453,10 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>652</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4484,7 +4484,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4584,7 +4584,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="47" t="s">
         <v>660</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4638,10 +4638,10 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>664</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="52">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4668,7 +4668,7 @@
     <row r="22" spans="2:10" ht="14.45" customHeight="1">
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -4768,7 +4768,7 @@
     <row r="28" spans="2:10" ht="28.9">
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="47" t="s">
         <v>660</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -4838,10 +4838,10 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="52">
         <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4869,7 +4869,7 @@
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -4969,7 +4969,7 @@
     <row r="40" spans="2:10" ht="14.45" customHeight="1">
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="47" t="s">
         <v>660</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -5023,10 +5023,10 @@
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>685</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="52">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -5054,7 +5054,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="76"/>
       <c r="C45" s="76"/>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -5138,7 +5138,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>660</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -5192,10 +5192,10 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>694</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="52">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -5223,7 +5223,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -5307,7 +5307,7 @@
     <row r="60" spans="2:10" ht="28.9" customHeight="1">
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="47" t="s">
         <v>660</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -5361,10 +5361,10 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="49" t="s">
         <v>703</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="52">
         <v>10</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -5391,7 +5391,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="76"/>
       <c r="C65" s="76"/>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="47" t="s">
         <v>653</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -5475,7 +5475,7 @@
     <row r="70" spans="2:10" ht="28.9" customHeight="1">
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="47" t="s">
         <v>660</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -5529,6 +5529,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="J64:J72"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="C21:C32"/>
+    <mergeCell ref="J44:J52"/>
+    <mergeCell ref="J33:J42"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="J54:J62"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D34:D38"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B54:B63"/>
     <mergeCell ref="D60:D63"/>
@@ -5545,34 +5573,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C10:C20"/>
     <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="J64:J72"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="C21:C32"/>
-    <mergeCell ref="J44:J52"/>
-    <mergeCell ref="J33:J42"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="J54:J62"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="J10:J19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5600,7 +5600,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>712</v>
       </c>
       <c r="D1" s="76"/>
@@ -5610,7 +5610,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>713</v>
       </c>
       <c r="D2" s="76"/>
@@ -5623,15 +5623,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>714</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="4" spans="2:10">
       <c r="F4" s="76"/>
-      <c r="I4" s="55"/>
+      <c r="I4" s="62"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -5659,31 +5659,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5695,14 +5695,14 @@
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
       <c r="H9" s="76"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>717</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5723,12 +5723,12 @@
         <f>SUM(I11:I16)</f>
         <v>9.7777777777777786</v>
       </c>
-      <c r="J10" s="57"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>718</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -5821,7 +5821,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="47" t="s">
         <v>723</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -5866,10 +5866,10 @@
       <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>726</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="52">
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5895,7 +5895,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="47" t="s">
         <v>727</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -6031,7 +6031,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="47" t="s">
         <v>734</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -6117,10 +6117,10 @@
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="52">
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -6146,7 +6146,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -6256,7 +6256,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="47" t="s">
         <v>723</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -6324,10 +6324,10 @@
       <c r="D39" s="76"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>748</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="52">
         <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -6353,7 +6353,7 @@
     <row r="41" spans="2:10" ht="28.9">
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="47" t="s">
         <v>73</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -6457,7 +6457,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="47" t="s">
         <v>723</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -6509,10 +6509,10 @@
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>756</v>
       </c>
-      <c r="C49" s="48">
+      <c r="C49" s="52">
         <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6538,7 +6538,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>757</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -6645,7 +6645,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="47" t="s">
         <v>723</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -6714,10 +6714,10 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="49" t="s">
         <v>766</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="52">
         <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -6743,7 +6743,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="47" t="s">
         <v>757</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -6836,7 +6836,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="76"/>
       <c r="C64" s="76"/>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="47" t="s">
         <v>734</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -6882,21 +6882,19 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="C49:C58"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="J49:J57"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="H8:H9"/>
@@ -6913,19 +6911,21 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="J49:J57"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6952,7 +6952,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>773</v>
       </c>
       <c r="D1" s="76"/>
@@ -6962,7 +6962,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>774</v>
       </c>
       <c r="D2" s="76"/>
@@ -6975,15 +6975,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>775</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -7013,31 +7013,31 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7053,10 +7053,10 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>777</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -7082,7 +7082,7 @@
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>778</v>
       </c>
@@ -7144,7 +7144,7 @@
     <row r="15" spans="2:10" ht="43.15" customHeight="1">
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="7" t="s">
         <v>782</v>
       </c>
@@ -7177,10 +7177,10 @@
       <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -7206,7 +7206,7 @@
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="7" t="s">
         <v>785</v>
       </c>
@@ -7268,7 +7268,7 @@
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
-      <c r="D23" s="45"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="7" t="s">
         <v>789</v>
       </c>
@@ -7286,10 +7286,10 @@
       <c r="D24" s="76"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>790</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -7315,7 +7315,7 @@
     <row r="26" spans="2:10" ht="14.45" customHeight="1">
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="7" t="s">
         <v>791</v>
       </c>
@@ -7374,10 +7374,10 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="49" t="s">
         <v>794</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -7403,7 +7403,7 @@
     <row r="31" spans="2:10" ht="14.45" customHeight="1">
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
-      <c r="D31" s="45"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="7" t="s">
         <v>795</v>
       </c>
@@ -7477,7 +7477,7 @@
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="7" t="s">
         <v>799</v>
       </c>
@@ -7516,10 +7516,10 @@
       <c r="D37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>801</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -7545,7 +7545,7 @@
     <row r="39" spans="2:10" ht="14.45" customHeight="1">
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="45"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="7" t="s">
         <v>795</v>
       </c>
@@ -7637,7 +7637,7 @@
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
       <c r="B45" s="76"/>
       <c r="C45" s="76"/>
-      <c r="D45" s="45"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="7" t="s">
         <v>805</v>
       </c>
@@ -7688,10 +7688,10 @@
       <c r="D48" s="76"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="C49" s="48">
+      <c r="C49" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -7717,7 +7717,7 @@
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="7" t="s">
         <v>809</v>
       </c>
@@ -7791,7 +7791,7 @@
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
       <c r="B54" s="76"/>
       <c r="C54" s="76"/>
-      <c r="D54" s="45"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="7" t="s">
         <v>813</v>
       </c>
@@ -7813,17 +7813,22 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="J30:J36"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="J38:J47"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J49:J54"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="C38:C48"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="J18:J23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C25:C29"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D35:D37"/>
@@ -7840,22 +7845,17 @@
     <mergeCell ref="B30:B37"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D23:D24"/>
-    <mergeCell ref="J38:J47"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="C38:C48"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="J18:J23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7882,21 +7882,21 @@
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>814</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
       <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -7905,15 +7905,15 @@
       <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="61" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="67" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -7922,8 +7922,8 @@
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
       <c r="E4" s="43"/>
-      <c r="F4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="F4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -7945,50 +7945,50 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="68" t="s">
         <v>816</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D10" s="40" t="s">
@@ -8010,14 +8010,14 @@
         <f>SUM(I11:I19)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="66" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="58"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>818</v>
       </c>
@@ -8033,12 +8033,12 @@
       <c r="I11" s="11">
         <v>1</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="7" t="s">
         <v>819</v>
       </c>
@@ -8054,12 +8054,12 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B13" s="58"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="7" t="s">
         <v>820</v>
       </c>
@@ -8075,12 +8075,12 @@
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="59"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="7" t="s">
         <v>821</v>
       </c>
@@ -8096,12 +8096,12 @@
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="59"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="58"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="7" t="s">
         <v>822</v>
       </c>
@@ -8117,11 +8117,11 @@
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="2:10" ht="72" customHeight="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="40" t="s">
         <v>9</v>
       </c>
@@ -8140,12 +8140,12 @@
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="59"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="7" t="s">
         <v>824</v>
       </c>
@@ -8161,12 +8161,12 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="59"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="7" t="s">
         <v>825</v>
       </c>
@@ -8182,12 +8182,12 @@
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B19" s="58"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="7" t="s">
         <v>826</v>
       </c>
@@ -8203,12 +8203,12 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="36"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -8216,10 +8216,10 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="68" t="s">
         <v>827</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D21" s="40" t="s">
@@ -8241,14 +8241,14 @@
         <f>SUM(I22:I24)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="66" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B22" s="58"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="45"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="7" t="s">
         <v>829</v>
       </c>
@@ -8264,12 +8264,12 @@
       <c r="I22" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="59"/>
+      <c r="J22" s="66"/>
     </row>
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="7" t="s">
         <v>831</v>
       </c>
@@ -8285,11 +8285,11 @@
       <c r="I23" s="11">
         <v>1</v>
       </c>
-      <c r="J23" s="59"/>
+      <c r="J23" s="66"/>
     </row>
     <row r="24" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="40" t="s">
         <v>9</v>
       </c>
@@ -8308,11 +8308,11 @@
       <c r="I24" s="11">
         <v>1</v>
       </c>
-      <c r="J24" s="59"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="11"/>
       <c r="E25" s="36"/>
       <c r="F25" s="11"/>
@@ -8321,10 +8321,10 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="68" t="s">
         <v>833</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D26" s="40" t="s">
@@ -8346,14 +8346,14 @@
         <f>SUM(I27:I33)</f>
         <v>3</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="66" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="45"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="7" t="s">
         <v>835</v>
       </c>
@@ -8369,12 +8369,12 @@
       <c r="I27" s="11">
         <v>1</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="7" t="s">
         <v>836</v>
       </c>
@@ -8390,12 +8390,12 @@
       <c r="I28" s="11">
         <v>1</v>
       </c>
-      <c r="J28" s="59"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="7" t="s">
         <v>837</v>
       </c>
@@ -8411,12 +8411,12 @@
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="59"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="7" t="s">
         <v>838</v>
       </c>
@@ -8432,11 +8432,11 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="59"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B31" s="58"/>
-      <c r="C31" s="50"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="40" t="s">
         <v>9</v>
       </c>
@@ -8455,12 +8455,12 @@
       <c r="I31" s="11">
         <v>0</v>
       </c>
-      <c r="J31" s="59"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B32" s="58"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="45"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="7" t="s">
         <v>840</v>
       </c>
@@ -8476,12 +8476,12 @@
       <c r="I32" s="11">
         <v>0</v>
       </c>
-      <c r="J32" s="59"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B33" s="58"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="7" t="s">
         <v>841</v>
       </c>
@@ -8497,12 +8497,12 @@
       <c r="I33" s="11">
         <v>0</v>
       </c>
-      <c r="J33" s="59"/>
+      <c r="J33" s="66"/>
     </row>
     <row r="34" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B34" s="58"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="36"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -8510,10 +8510,10 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D35" s="40" t="s">
@@ -8535,14 +8535,14 @@
         <f>SUM(I36:I46)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="59" t="s">
+      <c r="J35" s="66" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="45"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="7" t="s">
         <v>844</v>
       </c>
@@ -8558,12 +8558,12 @@
       <c r="I36" s="11">
         <v>0</v>
       </c>
-      <c r="J36" s="59"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B37" s="58"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="7" t="s">
         <v>845</v>
       </c>
@@ -8579,12 +8579,12 @@
       <c r="I37" s="11">
         <v>0</v>
       </c>
-      <c r="J37" s="59"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="58"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="7" t="s">
         <v>846</v>
       </c>
@@ -8600,12 +8600,12 @@
       <c r="I38" s="11">
         <v>0</v>
       </c>
-      <c r="J38" s="59"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B39" s="58"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="7" t="s">
         <v>847</v>
       </c>
@@ -8621,12 +8621,12 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-      <c r="J39" s="59"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B40" s="58"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="7" t="s">
         <v>848</v>
       </c>
@@ -8642,12 +8642,12 @@
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="59"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B41" s="58"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="7" t="s">
         <v>849</v>
       </c>
@@ -8663,11 +8663,11 @@
       <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="58"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="40" t="s">
         <v>9</v>
       </c>
@@ -8686,12 +8686,12 @@
       <c r="I42" s="11">
         <v>1</v>
       </c>
-      <c r="J42" s="59"/>
+      <c r="J42" s="66"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="58"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="7" t="s">
         <v>851</v>
       </c>
@@ -8707,12 +8707,12 @@
       <c r="I43" s="11">
         <v>0</v>
       </c>
-      <c r="J43" s="59"/>
+      <c r="J43" s="66"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="58"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="7" t="s">
         <v>852</v>
       </c>
@@ -8728,12 +8728,12 @@
       <c r="I44" s="11">
         <v>0</v>
       </c>
-      <c r="J44" s="59"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="7" t="s">
         <v>853</v>
       </c>
@@ -8749,12 +8749,12 @@
       <c r="I45" s="11">
         <v>0</v>
       </c>
-      <c r="J45" s="59"/>
+      <c r="J45" s="66"/>
     </row>
     <row r="46" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B46" s="58"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="7" t="s">
         <v>854</v>
       </c>
@@ -8770,12 +8770,12 @@
       <c r="I46" s="11">
         <v>0</v>
       </c>
-      <c r="J46" s="59"/>
+      <c r="J46" s="66"/>
     </row>
     <row r="47" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B47" s="58"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="36"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -8783,10 +8783,10 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="68" t="s">
         <v>855</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D48" s="40" t="s">
@@ -8808,14 +8808,14 @@
         <f>SUM(I49:I57)</f>
         <v>2</v>
       </c>
-      <c r="J48" s="59" t="s">
+      <c r="J48" s="66" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B49" s="58"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="7" t="s">
         <v>857</v>
       </c>
@@ -8831,12 +8831,12 @@
       <c r="I49" s="11">
         <v>0</v>
       </c>
-      <c r="J49" s="59"/>
+      <c r="J49" s="66"/>
     </row>
     <row r="50" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B50" s="58"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="7" t="s">
         <v>858</v>
       </c>
@@ -8852,12 +8852,12 @@
       <c r="I50" s="11">
         <v>0</v>
       </c>
-      <c r="J50" s="59"/>
+      <c r="J50" s="66"/>
     </row>
     <row r="51" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B51" s="58"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="7" t="s">
         <v>859</v>
       </c>
@@ -8873,12 +8873,12 @@
       <c r="I51" s="11">
         <v>0</v>
       </c>
-      <c r="J51" s="59"/>
+      <c r="J51" s="66"/>
     </row>
     <row r="52" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B52" s="58"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="7" t="s">
         <v>860</v>
       </c>
@@ -8894,12 +8894,12 @@
       <c r="I52" s="11">
         <v>0</v>
       </c>
-      <c r="J52" s="59"/>
+      <c r="J52" s="66"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="58"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="7" t="s">
         <v>861</v>
       </c>
@@ -8915,11 +8915,11 @@
       <c r="I53" s="11">
         <v>0</v>
       </c>
-      <c r="J53" s="59"/>
+      <c r="J53" s="66"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="58"/>
-      <c r="C54" s="50"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="40" t="s">
         <v>9</v>
       </c>
@@ -8938,12 +8938,12 @@
       <c r="I54" s="11">
         <v>0</v>
       </c>
-      <c r="J54" s="59"/>
+      <c r="J54" s="66"/>
     </row>
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B55" s="58"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="7" t="s">
         <v>863</v>
       </c>
@@ -8959,12 +8959,12 @@
       <c r="I55" s="11">
         <v>1</v>
       </c>
-      <c r="J55" s="59"/>
+      <c r="J55" s="66"/>
     </row>
     <row r="56" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B56" s="58"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="7" t="s">
         <v>864</v>
       </c>
@@ -8980,12 +8980,12 @@
       <c r="I56" s="11">
         <v>1</v>
       </c>
-      <c r="J56" s="59"/>
+      <c r="J56" s="66"/>
     </row>
     <row r="57" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B57" s="58"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="7" t="s">
         <v>865</v>
       </c>
@@ -9001,12 +9001,12 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-      <c r="J57" s="59"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B58" s="58"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="36"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -9014,10 +9014,10 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="68" t="s">
         <v>866</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D59" s="40" t="s">
@@ -9039,14 +9039,14 @@
         <f>SUM(I60:I66)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="59" t="s">
+      <c r="J59" s="66" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B60" s="58"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="7" t="s">
         <v>868</v>
       </c>
@@ -9062,12 +9062,12 @@
       <c r="I60" s="11">
         <v>0</v>
       </c>
-      <c r="J60" s="59"/>
+      <c r="J60" s="66"/>
     </row>
     <row r="61" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B61" s="58"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="7" t="s">
         <v>869</v>
       </c>
@@ -9083,12 +9083,12 @@
       <c r="I61" s="11">
         <v>0</v>
       </c>
-      <c r="J61" s="59"/>
+      <c r="J61" s="66"/>
     </row>
     <row r="62" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B62" s="58"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="7" t="s">
         <v>870</v>
       </c>
@@ -9104,12 +9104,12 @@
       <c r="I62" s="11">
         <v>0</v>
       </c>
-      <c r="J62" s="59"/>
+      <c r="J62" s="66"/>
     </row>
     <row r="63" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B63" s="58"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="7" t="s">
         <v>871</v>
       </c>
@@ -9125,11 +9125,11 @@
       <c r="I63" s="11">
         <v>0</v>
       </c>
-      <c r="J63" s="59"/>
+      <c r="J63" s="66"/>
     </row>
     <row r="64" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B64" s="58"/>
-      <c r="C64" s="50"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="40" t="s">
         <v>9</v>
       </c>
@@ -9148,12 +9148,12 @@
       <c r="I64" s="11">
         <v>0</v>
       </c>
-      <c r="J64" s="59"/>
+      <c r="J64" s="66"/>
     </row>
     <row r="65" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B65" s="58"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="45"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="7" t="s">
         <v>873</v>
       </c>
@@ -9169,12 +9169,12 @@
       <c r="I65" s="11">
         <v>0</v>
       </c>
-      <c r="J65" s="59"/>
+      <c r="J65" s="66"/>
     </row>
     <row r="66" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B66" s="58"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
       <c r="E66" s="7" t="s">
         <v>874</v>
       </c>
@@ -9190,38 +9190,21 @@
       <c r="I66" s="11">
         <v>0</v>
       </c>
-      <c r="J66" s="59"/>
+      <c r="J66" s="66"/>
     </row>
     <row r="67" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B67" s="58"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J35:J46"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B48:B58"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="C35:C47"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D65:D67"/>
     <mergeCell ref="J48:J57"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="I3:I4"/>
@@ -9238,11 +9221,28 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="C35:C47"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J35:J46"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J21:J24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9269,21 +9269,21 @@
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>875</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
       <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>876</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -9292,15 +9292,15 @@
       <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="69" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -9308,8 +9308,8 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="F4" s="69"/>
-      <c r="I4" s="65"/>
+      <c r="F4" s="70"/>
+      <c r="I4" s="59"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -9334,50 +9334,50 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="68" t="s">
         <v>878</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D10" s="40" t="s">
@@ -9398,14 +9398,14 @@
         <f>SUM(I11:I14)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="66" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="58"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>880</v>
       </c>
@@ -9421,12 +9421,12 @@
       <c r="I11" s="9">
         <v>4</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="7" t="s">
         <v>881</v>
       </c>
@@ -9442,11 +9442,11 @@
       <c r="I12" s="9">
         <v>2</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B13" s="58"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="40" t="s">
         <v>9</v>
       </c>
@@ -9465,12 +9465,12 @@
       <c r="I13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="59"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="7" t="s">
         <v>883</v>
       </c>
@@ -9486,22 +9486,22 @@
       <c r="I14" s="9">
         <v>2</v>
       </c>
-      <c r="J14" s="59"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B15" s="58"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="68" t="s">
         <v>884</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D16" s="40" t="s">
@@ -9523,14 +9523,14 @@
         <f>SUM(I17:I23)</f>
         <v>12</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="71" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="7" t="s">
         <v>886</v>
       </c>
@@ -9546,12 +9546,12 @@
       <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="7" t="s">
         <v>887</v>
       </c>
@@ -9567,12 +9567,12 @@
       <c r="I18" s="9">
         <v>2</v>
       </c>
-      <c r="J18" s="68"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="2:10" ht="57.6" customHeight="1">
-      <c r="B19" s="58"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="7" t="s">
         <v>888</v>
       </c>
@@ -9588,12 +9588,12 @@
       <c r="I19" s="9">
         <v>2</v>
       </c>
-      <c r="J19" s="68"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="7" t="s">
         <v>889</v>
       </c>
@@ -9609,11 +9609,11 @@
       <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="J20" s="68"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B21" s="58"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="40" t="s">
         <v>9</v>
       </c>
@@ -9632,12 +9632,12 @@
       <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B22" s="58"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="45"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="7" t="s">
         <v>891</v>
       </c>
@@ -9653,12 +9653,12 @@
       <c r="I22" s="9">
         <v>1</v>
       </c>
-      <c r="J22" s="68"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" spans="2:10" ht="43.15" customHeight="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="7" t="s">
         <v>892</v>
       </c>
@@ -9674,22 +9674,22 @@
       <c r="I23" s="9">
         <v>1</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="68" t="s">
         <v>893</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D25" s="40" t="s">
@@ -9711,14 +9711,14 @@
         <f>SUM(I26:I31)</f>
         <v>18</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="71" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="7" t="s">
         <v>895</v>
       </c>
@@ -9734,12 +9734,12 @@
       <c r="I26" s="9">
         <v>3</v>
       </c>
-      <c r="J26" s="68"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="7" t="s">
         <v>896</v>
       </c>
@@ -9755,12 +9755,12 @@
       <c r="I27" s="9">
         <v>3</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="71"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="7" t="s">
         <v>897</v>
       </c>
@@ -9776,11 +9776,11 @@
       <c r="I28" s="9">
         <v>3</v>
       </c>
-      <c r="J28" s="68"/>
+      <c r="J28" s="71"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="40" t="s">
         <v>9</v>
       </c>
@@ -9799,12 +9799,12 @@
       <c r="I29" s="9">
         <v>3</v>
       </c>
-      <c r="J29" s="68"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="45"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="7" t="s">
         <v>899</v>
       </c>
@@ -9820,12 +9820,12 @@
       <c r="I30" s="9">
         <v>3</v>
       </c>
-      <c r="J30" s="68"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B31" s="58"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="7" t="s">
         <v>900</v>
       </c>
@@ -9841,22 +9841,22 @@
       <c r="I31" s="9">
         <v>3</v>
       </c>
-      <c r="J31" s="68"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B32" s="58"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="68" t="s">
         <v>901</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D33" s="40" t="s">
@@ -9878,14 +9878,14 @@
         <f>SUM(I34:I42)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="66" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B34" s="58"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="7" t="s">
         <v>903</v>
       </c>
@@ -9901,12 +9901,12 @@
       <c r="I34" s="9">
         <v>0</v>
       </c>
-      <c r="J34" s="59"/>
+      <c r="J34" s="66"/>
     </row>
     <row r="35" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B35" s="58"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="7" t="s">
         <v>904</v>
       </c>
@@ -9922,12 +9922,12 @@
       <c r="I35" s="9">
         <v>0</v>
       </c>
-      <c r="J35" s="59"/>
+      <c r="J35" s="66"/>
     </row>
     <row r="36" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B36" s="58"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="7" t="s">
         <v>905</v>
       </c>
@@ -9943,12 +9943,12 @@
       <c r="I36" s="9">
         <v>0</v>
       </c>
-      <c r="J36" s="59"/>
+      <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B37" s="58"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="7" t="s">
         <v>906</v>
       </c>
@@ -9964,12 +9964,12 @@
       <c r="I37" s="9">
         <v>0</v>
       </c>
-      <c r="J37" s="59"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B38" s="58"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="7" t="s">
         <v>907</v>
       </c>
@@ -9985,11 +9985,11 @@
       <c r="I38" s="9">
         <v>0</v>
       </c>
-      <c r="J38" s="59"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B39" s="58"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="40" t="s">
         <v>9</v>
       </c>
@@ -10008,12 +10008,12 @@
       <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J39" s="59"/>
+      <c r="J39" s="66"/>
     </row>
     <row r="40" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B40" s="58"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="7" t="s">
         <v>909</v>
       </c>
@@ -10029,12 +10029,12 @@
       <c r="I40" s="9">
         <v>0</v>
       </c>
-      <c r="J40" s="59"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B41" s="58"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="7" t="s">
         <v>910</v>
       </c>
@@ -10050,12 +10050,12 @@
       <c r="I41" s="9">
         <v>0</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="66"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="58"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="7" t="s">
         <v>911</v>
       </c>
@@ -10071,22 +10071,22 @@
       <c r="I42" s="9">
         <v>0</v>
       </c>
-      <c r="J42" s="59"/>
+      <c r="J42" s="66"/>
     </row>
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B43" s="58"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="68" t="s">
         <v>912</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D44" s="40" t="s">
@@ -10108,14 +10108,14 @@
         <f>SUM(I45:I53)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="68" t="s">
+      <c r="J44" s="71" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="7" t="s">
         <v>914</v>
       </c>
@@ -10131,12 +10131,12 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="68"/>
+      <c r="J45" s="71"/>
     </row>
     <row r="46" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B46" s="58"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
       <c r="E46" s="7" t="s">
         <v>915</v>
       </c>
@@ -10152,12 +10152,12 @@
       <c r="I46" s="9">
         <v>0</v>
       </c>
-      <c r="J46" s="68"/>
+      <c r="J46" s="71"/>
     </row>
     <row r="47" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B47" s="58"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="7" t="s">
         <v>916</v>
       </c>
@@ -10173,12 +10173,12 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-      <c r="J47" s="68"/>
+      <c r="J47" s="71"/>
     </row>
     <row r="48" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B48" s="58"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="7" t="s">
         <v>917</v>
       </c>
@@ -10194,12 +10194,12 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-      <c r="J48" s="68"/>
+      <c r="J48" s="71"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="58"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="7" t="s">
         <v>918</v>
       </c>
@@ -10215,11 +10215,11 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-      <c r="J49" s="68"/>
+      <c r="J49" s="71"/>
     </row>
     <row r="50" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B50" s="58"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="40" t="s">
         <v>9</v>
       </c>
@@ -10238,12 +10238,12 @@
       <c r="I50" s="9">
         <v>0</v>
       </c>
-      <c r="J50" s="68"/>
+      <c r="J50" s="71"/>
     </row>
     <row r="51" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B51" s="58"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="7" t="s">
         <v>920</v>
       </c>
@@ -10259,12 +10259,12 @@
       <c r="I51" s="9">
         <v>0</v>
       </c>
-      <c r="J51" s="68"/>
+      <c r="J51" s="71"/>
     </row>
     <row r="52" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B52" s="58"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="7" t="s">
         <v>921</v>
       </c>
@@ -10280,12 +10280,12 @@
       <c r="I52" s="9">
         <v>0</v>
       </c>
-      <c r="J52" s="68"/>
+      <c r="J52" s="71"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="58"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="7" t="s">
         <v>922</v>
       </c>
@@ -10301,22 +10301,22 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="68"/>
+      <c r="J53" s="71"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="58"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="68" t="s">
         <v>923</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="52">
         <v>16.6666666666667</v>
       </c>
       <c r="D55" s="40" t="s">
@@ -10338,14 +10338,14 @@
         <f>SUM(I56:I59)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="59" t="s">
+      <c r="J55" s="66" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="28.9">
-      <c r="B56" s="58"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="7" t="s">
         <v>925</v>
       </c>
@@ -10361,12 +10361,12 @@
       <c r="I56" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="59"/>
+      <c r="J56" s="66"/>
     </row>
     <row r="57" spans="2:10" ht="43.15">
-      <c r="B57" s="58"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="7" t="s">
         <v>926</v>
       </c>
@@ -10382,11 +10382,11 @@
       <c r="I57" s="9">
         <v>0</v>
       </c>
-      <c r="J57" s="59"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="2:10" ht="28.9">
-      <c r="B58" s="58"/>
-      <c r="C58" s="50"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="40" t="s">
         <v>9</v>
       </c>
@@ -10405,12 +10405,12 @@
       <c r="I58" s="9">
         <v>0</v>
       </c>
-      <c r="J58" s="59"/>
+      <c r="J58" s="66"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="58"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="7" t="s">
         <v>928</v>
       </c>
@@ -10426,22 +10426,36 @@
       <c r="I59" s="9">
         <v>0</v>
       </c>
-      <c r="J59" s="59"/>
+      <c r="J59" s="66"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="58"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="B33:B43"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C33:C43"/>
+    <mergeCell ref="D45:D49"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="J33:J42"/>
@@ -10458,27 +10472,13 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J16:J23"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10507,7 +10507,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>929</v>
       </c>
       <c r="D1" s="76"/>
@@ -10517,7 +10517,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>930</v>
       </c>
       <c r="D2" s="76"/>
@@ -10530,15 +10530,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>775</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="74" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -10546,7 +10546,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="F4" s="55"/>
+      <c r="F4" s="62"/>
       <c r="I4" s="77"/>
       <c r="J4" t="s">
         <v>9</v>
@@ -10566,31 +10566,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -10599,17 +10599,17 @@
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
       <c r="E9" s="76"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="76"/>
       <c r="I9" s="77"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>931</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10635,7 +10635,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>932</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -10745,7 +10745,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="47" t="s">
         <v>938</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -10793,10 +10793,10 @@
       <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>941</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -10822,7 +10822,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="47" t="s">
         <v>942</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -10932,7 +10932,7 @@
     <row r="25" spans="2:10" ht="28.9">
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="47" t="s">
         <v>938</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -10980,10 +10980,10 @@
       <c r="D27" s="76"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>950</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -11009,7 +11009,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="47" t="s">
         <v>951</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -11093,7 +11093,7 @@
     <row r="33" spans="2:10" ht="28.9">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="47" t="s">
         <v>938</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -11120,10 +11120,10 @@
       <c r="D34" s="76"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>957</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -11149,7 +11149,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="47" t="s">
         <v>958</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -11242,7 +11242,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="47" t="s">
         <v>938</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -11287,10 +11287,10 @@
       <c r="D42" s="76"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>965</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -11316,7 +11316,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="47" t="s">
         <v>966</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -11449,7 +11449,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="47" t="s">
         <v>938</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -11520,10 +11520,10 @@
       <c r="D53" s="76"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>976</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="52">
         <v>16.666666666666671</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -11549,7 +11549,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="47" t="s">
         <v>977</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -11699,7 +11699,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="76"/>
       <c r="C62" s="76"/>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="47" t="s">
         <v>938</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -11785,6 +11785,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J54:J65"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C19:C27"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="B54:B66"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="B35:B42"/>
@@ -11801,34 +11829,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C28:C34"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C54:C66"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="B54:B66"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J54:J65"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D25:D27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11856,7 +11856,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="76"/>
@@ -11866,7 +11866,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="76"/>
@@ -11879,15 +11879,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -11915,31 +11915,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11955,10 +11955,10 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -11984,7 +11984,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -12078,7 +12078,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -12137,10 +12137,10 @@
       <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="52">
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -12166,7 +12166,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="47" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -12278,7 +12278,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="76"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="47" t="s">
         <v>73</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -12337,10 +12337,10 @@
       <c r="D30" s="76"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="52">
         <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -12366,7 +12366,7 @@
     <row r="32" spans="2:10">
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="47" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -12460,7 +12460,7 @@
     <row r="37" spans="2:10">
       <c r="B37" s="76"/>
       <c r="C37" s="76"/>
-      <c r="D37" s="45"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="7" t="s">
         <v>83</v>
       </c>
@@ -12499,10 +12499,10 @@
       <c r="D39" s="76"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="52">
         <v>16</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -12528,7 +12528,7 @@
     <row r="41" spans="2:10">
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="47" t="s">
         <v>66</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -12622,7 +12622,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="7" t="s">
         <v>91</v>
       </c>
@@ -12679,10 +12679,10 @@
       <c r="D49" s="76"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="52">
         <v>14</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -12708,7 +12708,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="47" t="s">
         <v>66</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -12802,7 +12802,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
-      <c r="D56" s="45"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="7" t="s">
         <v>100</v>
       </c>
@@ -12859,10 +12859,10 @@
       <c r="D59" s="76"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="52">
         <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -12888,7 +12888,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="76"/>
       <c r="C61" s="76"/>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="47" t="s">
         <v>55</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -12982,7 +12982,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="76"/>
       <c r="C66" s="76"/>
-      <c r="D66" s="45"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="7" t="s">
         <v>109</v>
       </c>
@@ -13021,10 +13021,10 @@
       <c r="D68" s="76"/>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="52">
         <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -13050,7 +13050,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="47" t="s">
         <v>112</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -13144,7 +13144,7 @@
     <row r="75" spans="2:10" ht="28.9">
       <c r="B75" s="76"/>
       <c r="C75" s="76"/>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="47" t="s">
         <v>118</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -13186,39 +13186,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C69:C77"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B69:B77"/>
     <mergeCell ref="B50:B59"/>
     <mergeCell ref="J10:J18"/>
@@ -13235,6 +13202,39 @@
     <mergeCell ref="J69:J76"/>
     <mergeCell ref="C60:C68"/>
     <mergeCell ref="J50:J58"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C69:C77"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D41:D44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13262,7 +13262,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>121</v>
       </c>
       <c r="D1" s="76"/>
@@ -13272,7 +13272,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>122</v>
       </c>
       <c r="D2" s="76"/>
@@ -13285,15 +13285,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -13321,31 +13321,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13356,15 +13356,15 @@
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
-      <c r="H9" s="53"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13390,7 +13390,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>126</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -13487,7 +13487,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -13550,10 +13550,10 @@
       <c r="C21" s="76"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="52">
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -13579,7 +13579,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="47" t="s">
         <v>126</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -13676,7 +13676,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -13728,10 +13728,10 @@
       <c r="C31" s="76"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="52">
         <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -13757,7 +13757,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="47" t="s">
         <v>148</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -13863,7 +13863,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -13918,10 +13918,10 @@
       <c r="C41" s="76"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="48">
+      <c r="C42" s="52">
         <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -13947,7 +13947,7 @@
     <row r="43" spans="2:10">
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="47" t="s">
         <v>158</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -14041,7 +14041,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -14090,10 +14090,10 @@
       <c r="C51" s="76"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="52">
         <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -14119,7 +14119,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="76"/>
       <c r="C53" s="76"/>
-      <c r="D53" s="45" t="s">
+      <c r="D53" s="47" t="s">
         <v>158</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -14222,7 +14222,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="76"/>
       <c r="C59" s="76"/>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -14294,10 +14294,10 @@
       <c r="C63" s="76"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="52">
         <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -14323,7 +14323,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="76"/>
       <c r="C65" s="76"/>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="47" t="s">
         <v>179</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -14423,7 +14423,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -14472,10 +14472,10 @@
       <c r="C73" s="76"/>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="52">
         <v>5</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -14501,7 +14501,7 @@
     <row r="75" spans="2:10">
       <c r="B75" s="76"/>
       <c r="C75" s="76"/>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="47" t="s">
         <v>158</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -14565,7 +14565,7 @@
     <row r="79" spans="2:10" ht="14.45" customHeight="1">
       <c r="B79" s="76"/>
       <c r="C79" s="76"/>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -14589,6 +14589,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J22:J30"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="J64:J72"/>
+    <mergeCell ref="J42:J50"/>
+    <mergeCell ref="J52:J62"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D79:D81"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="E8:E9"/>
@@ -14605,39 +14638,6 @@
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="B52:B63"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J74:J79"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="J64:J72"/>
-    <mergeCell ref="J42:J50"/>
-    <mergeCell ref="J52:J62"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="J10:J20"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J22:J30"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14665,7 +14665,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>194</v>
       </c>
       <c r="D1" s="76"/>
@@ -14675,7 +14675,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="76"/>
@@ -14688,15 +14688,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>196</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -14724,31 +14724,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14759,15 +14759,15 @@
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
-      <c r="H9" s="53"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -14793,7 +14793,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>200</v>
       </c>
@@ -14903,7 +14903,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="45"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="7" t="s">
         <v>207</v>
       </c>
@@ -14960,10 +14960,10 @@
       <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="52">
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -14989,7 +14989,7 @@
     <row r="22" spans="2:10">
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="7" t="s">
         <v>211</v>
       </c>
@@ -15099,7 +15099,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
-      <c r="D28" s="45"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="7" t="s">
         <v>217</v>
       </c>
@@ -15156,10 +15156,10 @@
       <c r="D31" s="76"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="52">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -15185,7 +15185,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
-      <c r="D33" s="45"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="7" t="s">
         <v>221</v>
       </c>
@@ -15292,7 +15292,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="45"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="7" t="s">
         <v>227</v>
       </c>
@@ -15343,10 +15343,10 @@
       <c r="D42" s="76"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="52">
         <v>14</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -15372,7 +15372,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="7" t="s">
         <v>231</v>
       </c>
@@ -15482,7 +15482,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="7" t="s">
         <v>237</v>
       </c>
@@ -15533,10 +15533,10 @@
       <c r="D53" s="76"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="52">
         <v>12</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -15562,7 +15562,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
-      <c r="D55" s="45"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="7" t="s">
         <v>241</v>
       </c>
@@ -15651,7 +15651,7 @@
     <row r="60" spans="2:10" ht="28.9">
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="45"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="7" t="s">
         <v>246</v>
       </c>
@@ -15708,10 +15708,10 @@
       <c r="D63" s="76"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="52">
         <v>18</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -15737,7 +15737,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="76"/>
       <c r="C65" s="76"/>
-      <c r="D65" s="45"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="7" t="s">
         <v>250</v>
       </c>
@@ -15841,7 +15841,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="76"/>
       <c r="C71" s="76"/>
-      <c r="D71" s="45"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="7" t="s">
         <v>256</v>
       </c>
@@ -15913,10 +15913,10 @@
       <c r="D75" s="76"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="52">
         <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -15942,7 +15942,7 @@
     <row r="77" spans="2:10">
       <c r="B77" s="76"/>
       <c r="C77" s="76"/>
-      <c r="D77" s="45"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="7" t="s">
         <v>261</v>
       </c>
@@ -16040,7 +16040,7 @@
     <row r="83" spans="2:10">
       <c r="B83" s="76"/>
       <c r="C83" s="76"/>
-      <c r="D83" s="45"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="7" t="s">
         <v>267</v>
       </c>
@@ -16103,10 +16103,10 @@
       <c r="D87" s="76"/>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C88" s="48">
+      <c r="C88" s="52">
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
@@ -16132,7 +16132,7 @@
     <row r="89" spans="2:10">
       <c r="B89" s="76"/>
       <c r="C89" s="76"/>
-      <c r="D89" s="45"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="7" t="s">
         <v>272</v>
       </c>
@@ -16209,7 +16209,7 @@
     <row r="94" spans="2:10">
       <c r="B94" s="76"/>
       <c r="C94" s="76"/>
-      <c r="D94" s="45"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="7" t="s">
         <v>277</v>
       </c>
@@ -16263,10 +16263,10 @@
       <c r="D97" s="76"/>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="52">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -16292,7 +16292,7 @@
     <row r="99" spans="2:10">
       <c r="B99" s="76"/>
       <c r="C99" s="76"/>
-      <c r="D99" s="45"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="7" t="s">
         <v>281</v>
       </c>
@@ -16375,7 +16375,7 @@
     <row r="104" spans="2:10">
       <c r="B104" s="76"/>
       <c r="C104" s="76"/>
-      <c r="D104" s="45"/>
+      <c r="D104" s="47"/>
       <c r="E104" s="7" t="s">
         <v>286</v>
       </c>
@@ -16409,34 +16409,21 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="B64:B75"/>
-    <mergeCell ref="J54:J62"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="J76:J86"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="B88:B97"/>
+    <mergeCell ref="C98:C106"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="J88:J96"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="J64:J74"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="J32:J41"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="C76:C87"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="J43:J52"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C64:C75"/>
     <mergeCell ref="J10:J19"/>
@@ -16453,21 +16440,34 @@
     <mergeCell ref="D65:D69"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J76:J86"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C98:C106"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="J88:J96"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="J64:J74"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="J32:J41"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="C76:C87"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="J43:J52"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="B21:B31"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="B64:B75"/>
+    <mergeCell ref="J54:J62"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16494,7 +16494,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>288</v>
       </c>
       <c r="D1" s="76"/>
@@ -16504,7 +16504,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>289</v>
       </c>
       <c r="D2" s="76"/>
@@ -16517,15 +16517,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -16551,31 +16551,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16591,10 +16591,10 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -16621,7 +16621,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -16721,7 +16721,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -16775,10 +16775,10 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="52">
         <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -16806,7 +16806,7 @@
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -16912,7 +16912,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -16986,10 +16986,10 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="52">
         <v>2.5</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -17017,7 +17017,7 @@
     <row r="34" spans="2:10" ht="28.9">
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -17087,7 +17087,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -17125,10 +17125,10 @@
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="52">
         <v>2.5</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -17156,7 +17156,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -17240,7 +17240,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -17278,10 +17278,10 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="52">
         <v>2.5</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -17309,7 +17309,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -17393,7 +17393,7 @@
     <row r="56" spans="2:10" ht="28.9">
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -17431,10 +17431,10 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="52">
         <v>2.5</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -17462,7 +17462,7 @@
     <row r="60" spans="2:10" ht="28.9" customHeight="1">
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -17562,7 +17562,7 @@
     <row r="66" spans="2:10" ht="28.9">
       <c r="B66" s="76"/>
       <c r="C66" s="76"/>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -17616,10 +17616,10 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="C70" s="48">
+      <c r="C70" s="52">
         <v>20</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -17647,7 +17647,7 @@
     <row r="71" spans="2:10" ht="14.45" customHeight="1">
       <c r="B71" s="76"/>
       <c r="C71" s="76"/>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="47" t="s">
         <v>294</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -17747,7 +17747,7 @@
     <row r="77" spans="2:10">
       <c r="B77" s="76"/>
       <c r="C77" s="76"/>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -17798,29 +17798,16 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B59:B69"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J70:J79"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C21:C32"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="C59:C69"/>
+    <mergeCell ref="C70:C80"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="D60:D64"/>
     <mergeCell ref="J10:J19"/>
@@ -17837,16 +17824,29 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="J50:J57"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J70:J79"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C21:C32"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="C59:C69"/>
-    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B59:B69"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17874,7 +17874,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>360</v>
       </c>
       <c r="D1" s="76"/>
@@ -17884,7 +17884,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>361</v>
       </c>
       <c r="D2" s="76"/>
@@ -17897,15 +17897,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -17933,31 +17933,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -17968,15 +17968,15 @@
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -18001,7 +18001,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>365</v>
       </c>
@@ -18063,7 +18063,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="7" t="s">
         <v>370</v>
       </c>
@@ -18090,10 +18090,10 @@
       <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="52">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -18121,7 +18121,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="7" t="s">
         <v>373</v>
       </c>
@@ -18189,7 +18189,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
-      <c r="D25" s="45"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="7" t="s">
         <v>378</v>
       </c>
@@ -18216,10 +18216,10 @@
       <c r="D27" s="76"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="52">
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -18244,7 +18244,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
-      <c r="D29" s="45"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="7" t="s">
         <v>381</v>
       </c>
@@ -18333,7 +18333,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="45"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="7" t="s">
         <v>387</v>
       </c>
@@ -18375,10 +18375,10 @@
       <c r="D38" s="76"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="52">
         <v>30</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -18403,7 +18403,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="7" t="s">
         <v>391</v>
       </c>
@@ -18492,7 +18492,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="7" t="s">
         <v>397</v>
       </c>
@@ -18537,10 +18537,10 @@
       <c r="D49" s="76"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="52">
         <v>10</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -18565,7 +18565,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="76"/>
       <c r="C51" s="76"/>
-      <c r="D51" s="45"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="7" t="s">
         <v>401</v>
       </c>
@@ -18624,7 +18624,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="76"/>
       <c r="C55" s="76"/>
-      <c r="D55" s="45"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="7" t="s">
         <v>405</v>
       </c>
@@ -18657,10 +18657,10 @@
       <c r="D57" s="76"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="52">
         <v>10</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -18685,7 +18685,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="76"/>
       <c r="C59" s="76"/>
-      <c r="D59" s="45"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="7" t="s">
         <v>408</v>
       </c>
@@ -18759,7 +18759,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="76"/>
       <c r="C64" s="76"/>
-      <c r="D64" s="45"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="7" t="s">
         <v>413</v>
       </c>
@@ -18802,29 +18802,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="J19:J26"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="J28:J37"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="J50:J56"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D59:D62"/>
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="J39:J48"/>
@@ -18841,11 +18823,29 @@
     <mergeCell ref="D40:D44"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="J50:J56"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="J28:J37"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18855,8 +18855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -18872,21 +18872,21 @@
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
       <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="57" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -18895,15 +18895,15 @@
       <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="65" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -18911,20 +18911,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.45" customHeight="1">
-      <c r="F4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="F4" s="59"/>
+      <c r="I4" s="59"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25">
       <c r="F5" s="38">
-        <f>SUM(F8:F200)/2</f>
-        <v>66.5</v>
+        <f>SUM(F8:F200)</f>
+        <v>68</v>
       </c>
       <c r="I5" s="39">
         <f>SUM(I8:I200)/2</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>420</v>
@@ -18933,50 +18933,50 @@
     <row r="6" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
     <row r="8" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>20</v>
       </c>
       <c r="D10" s="40" t="s">
@@ -18985,22 +18985,20 @@
       <c r="E10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="75">
-        <v>27</v>
-      </c>
-      <c r="G10" s="75">
+      <c r="F10" s="45">
+        <v>11</v>
+      </c>
+      <c r="G10" s="45">
         <f>SUM(G11:G18)</f>
         <v>100</v>
       </c>
-      <c r="I10" s="75">
-        <v>3</v>
-      </c>
+      <c r="I10" s="45"/>
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>422</v>
       </c>
@@ -19013,9 +19011,9 @@
       <c r="J11" s="76"/>
     </row>
     <row r="12" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="7" t="s">
         <v>423</v>
       </c>
@@ -19028,9 +19026,9 @@
       <c r="J12" s="76"/>
     </row>
     <row r="13" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="7" t="s">
         <v>424</v>
       </c>
@@ -19043,9 +19041,9 @@
       <c r="J13" s="76"/>
     </row>
     <row r="14" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="7" t="s">
         <v>425</v>
       </c>
@@ -19058,8 +19056,8 @@
       <c r="J14" s="76"/>
     </row>
     <row r="15" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="40" t="s">
         <v>9</v>
       </c>
@@ -19075,9 +19073,9 @@
       <c r="J15" s="76"/>
     </row>
     <row r="16" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="7" t="s">
         <v>427</v>
       </c>
@@ -19090,9 +19088,9 @@
       <c r="J16" s="76"/>
     </row>
     <row r="17" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="7" t="s">
         <v>428</v>
       </c>
@@ -19105,9 +19103,9 @@
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="7" t="s">
         <v>429</v>
       </c>
@@ -19120,15 +19118,15 @@
       <c r="J18" s="76"/>
     </row>
     <row r="19" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
     </row>
     <row r="20" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>430</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="52">
         <v>20</v>
       </c>
       <c r="D20" s="40" t="s">
@@ -19137,22 +19135,22 @@
       <c r="E20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="75">
-        <v>27</v>
-      </c>
-      <c r="G20" s="75">
+      <c r="F20" s="45">
+        <v>18</v>
+      </c>
+      <c r="G20" s="45">
         <f>SUM(G21:G30)</f>
         <v>100</v>
       </c>
-      <c r="I20" s="75">
-        <v>3</v>
+      <c r="I20" s="45">
+        <v>4</v>
       </c>
       <c r="J20" s="76"/>
     </row>
     <row r="21" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="7" t="s">
         <v>431</v>
       </c>
@@ -19165,9 +19163,9 @@
       <c r="J21" s="76"/>
     </row>
     <row r="22" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="7" t="s">
         <v>432</v>
       </c>
@@ -19180,9 +19178,9 @@
       <c r="J22" s="76"/>
     </row>
     <row r="23" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="7" t="s">
         <v>433</v>
       </c>
@@ -19195,9 +19193,9 @@
       <c r="J23" s="76"/>
     </row>
     <row r="24" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="7" t="s">
         <v>434</v>
       </c>
@@ -19210,9 +19208,9 @@
       <c r="J24" s="76"/>
     </row>
     <row r="25" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="7" t="s">
         <v>435</v>
       </c>
@@ -19222,11 +19220,14 @@
       <c r="G25" s="8">
         <v>10</v>
       </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
       <c r="J25" s="76"/>
     </row>
     <row r="26" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="40" t="s">
         <v>9</v>
       </c>
@@ -19242,9 +19243,9 @@
       <c r="J26" s="76"/>
     </row>
     <row r="27" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="7" t="s">
         <v>437</v>
       </c>
@@ -19257,9 +19258,9 @@
       <c r="J27" s="76"/>
     </row>
     <row r="28" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="7" t="s">
         <v>438</v>
       </c>
@@ -19272,9 +19273,9 @@
       <c r="J28" s="76"/>
     </row>
     <row r="29" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="7" t="s">
         <v>439</v>
       </c>
@@ -19287,9 +19288,9 @@
       <c r="J29" s="76"/>
     </row>
     <row r="30" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="7" t="s">
         <v>440</v>
       </c>
@@ -19302,15 +19303,15 @@
       <c r="J30" s="76"/>
     </row>
     <row r="31" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
     </row>
     <row r="32" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>441</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="52">
         <v>20</v>
       </c>
       <c r="D32" s="40" t="s">
@@ -19319,22 +19320,20 @@
       <c r="E32" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="75">
-        <v>27</v>
-      </c>
-      <c r="G32" s="75">
+      <c r="F32" s="45">
+        <v>11</v>
+      </c>
+      <c r="G32" s="45">
         <f>SUM(G33:G43)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="I32" s="75">
-        <v>3</v>
-      </c>
+      <c r="I32" s="45"/>
       <c r="J32" s="76"/>
     </row>
     <row r="33" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="7" t="s">
         <v>442</v>
       </c>
@@ -19347,9 +19346,9 @@
       <c r="J33" s="76"/>
     </row>
     <row r="34" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="7" t="s">
         <v>443</v>
       </c>
@@ -19362,9 +19361,9 @@
       <c r="J34" s="76"/>
     </row>
     <row r="35" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="7" t="s">
         <v>444</v>
       </c>
@@ -19377,9 +19376,9 @@
       <c r="J35" s="76"/>
     </row>
     <row r="36" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="7" t="s">
         <v>445</v>
       </c>
@@ -19395,9 +19394,9 @@
       <c r="J36" s="76"/>
     </row>
     <row r="37" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="7" t="s">
         <v>447</v>
       </c>
@@ -19410,9 +19409,9 @@
       <c r="J37" s="76"/>
     </row>
     <row r="38" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="7" t="s">
         <v>448</v>
       </c>
@@ -19425,8 +19424,8 @@
       <c r="J38" s="76"/>
     </row>
     <row r="39" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="40" t="s">
         <v>9</v>
       </c>
@@ -19442,9 +19441,9 @@
       <c r="J39" s="76"/>
     </row>
     <row r="40" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="45"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="7" t="s">
         <v>450</v>
       </c>
@@ -19460,9 +19459,9 @@
       <c r="J40" s="76"/>
     </row>
     <row r="41" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="7" t="s">
         <v>451</v>
       </c>
@@ -19475,9 +19474,9 @@
       <c r="J41" s="76"/>
     </row>
     <row r="42" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="7" t="s">
         <v>452</v>
       </c>
@@ -19490,9 +19489,9 @@
       <c r="J42" s="76"/>
     </row>
     <row r="43" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="7" t="s">
         <v>453</v>
       </c>
@@ -19505,15 +19504,15 @@
       <c r="J43" s="76"/>
     </row>
     <row r="44" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
     </row>
     <row r="45" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="C45" s="48">
+      <c r="C45" s="52">
         <v>20</v>
       </c>
       <c r="D45" s="40" t="s">
@@ -19522,22 +19521,20 @@
       <c r="E45" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="75">
-        <v>26</v>
-      </c>
-      <c r="G45" s="75">
+      <c r="F45" s="45">
+        <v>11</v>
+      </c>
+      <c r="G45" s="45">
         <f>SUM(G46:G53)</f>
         <v>100</v>
       </c>
-      <c r="I45" s="75">
-        <v>3</v>
-      </c>
+      <c r="I45" s="45"/>
       <c r="J45" s="76"/>
     </row>
     <row r="46" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="45"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="7" t="s">
         <v>455</v>
       </c>
@@ -19550,9 +19547,9 @@
       <c r="J46" s="76"/>
     </row>
     <row r="47" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="7" t="s">
         <v>456</v>
       </c>
@@ -19565,9 +19562,9 @@
       <c r="J47" s="76"/>
     </row>
     <row r="48" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="7" t="s">
         <v>457</v>
       </c>
@@ -19580,9 +19577,9 @@
       <c r="J48" s="76"/>
     </row>
     <row r="49" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="7" t="s">
         <v>458</v>
       </c>
@@ -19595,8 +19592,8 @@
       <c r="J49" s="76"/>
     </row>
     <row r="50" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="40" t="s">
         <v>9</v>
       </c>
@@ -19612,9 +19609,9 @@
       <c r="J50" s="76"/>
     </row>
     <row r="51" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="7" t="s">
         <v>460</v>
       </c>
@@ -19630,9 +19627,9 @@
       <c r="J51" s="76"/>
     </row>
     <row r="52" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="7" t="s">
         <v>461</v>
       </c>
@@ -19645,9 +19642,9 @@
       <c r="J52" s="76"/>
     </row>
     <row r="53" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="7" t="s">
         <v>462</v>
       </c>
@@ -19660,15 +19657,15 @@
       <c r="J53" s="76"/>
     </row>
     <row r="54" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="52">
         <v>20</v>
       </c>
       <c r="D55" s="40" t="s">
@@ -19677,22 +19674,22 @@
       <c r="E55" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="75">
-        <v>26</v>
-      </c>
-      <c r="G55" s="75">
+      <c r="F55" s="45">
+        <v>17</v>
+      </c>
+      <c r="G55" s="45">
         <f>SUM(G56:G61)</f>
         <v>100.0000000000002</v>
       </c>
-      <c r="I55" s="75">
-        <v>3</v>
+      <c r="I55" s="45">
+        <v>6</v>
       </c>
       <c r="J55" s="76"/>
     </row>
     <row r="56" spans="2:10" ht="28.9" customHeight="1">
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="7" t="s">
         <v>464</v>
       </c>
@@ -19705,9 +19702,9 @@
       <c r="J56" s="76"/>
     </row>
     <row r="57" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="7" t="s">
         <v>465</v>
       </c>
@@ -19720,9 +19717,9 @@
       <c r="J57" s="76"/>
     </row>
     <row r="58" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="7" t="s">
         <v>466</v>
       </c>
@@ -19735,8 +19732,8 @@
       <c r="J58" s="76"/>
     </row>
     <row r="59" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="40" t="s">
         <v>9</v>
       </c>
@@ -19749,12 +19746,15 @@
       <c r="G59" s="8">
         <v>16.6666666666667</v>
       </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
       <c r="J59" s="76"/>
     </row>
     <row r="60" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="7" t="s">
         <v>468</v>
       </c>
@@ -19767,9 +19767,9 @@
       <c r="J60" s="76"/>
     </row>
     <row r="61" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
       <c r="E61" s="7" t="s">
         <v>469</v>
       </c>
@@ -19782,13 +19782,36 @@
       <c r="J61" s="76"/>
     </row>
     <row r="62" spans="2:10" ht="14.45" customHeight="1">
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
     </row>
     <row r="63" spans="2:10" ht="15"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="J55:J61"/>
+    <mergeCell ref="J32:J43"/>
+    <mergeCell ref="J45:J53"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="C32:C44"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="J20:J30"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="B55:B62"/>
@@ -19805,29 +19828,6 @@
     <mergeCell ref="B32:B44"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="J20:J30"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J55:J61"/>
-    <mergeCell ref="J32:J43"/>
-    <mergeCell ref="J45:J53"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="C32:C44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19837,7 +19837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I72" sqref="I72:I80"/>
     </sheetView>
   </sheetViews>
@@ -19854,7 +19854,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>470</v>
       </c>
       <c r="D1" s="76"/>
@@ -19864,7 +19864,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>471</v>
       </c>
       <c r="D2" s="76"/>
@@ -19877,15 +19877,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>472</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -19913,31 +19913,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -19953,10 +19953,10 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -19982,7 +19982,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>476</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -20066,7 +20066,7 @@
     <row r="15" spans="2:10" ht="28.9">
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="47" t="s">
         <v>481</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -20111,10 +20111,10 @@
       <c r="D17" s="76"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="52">
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -20140,7 +20140,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="47" t="s">
         <v>485</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -20244,7 +20244,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="47" t="s">
         <v>491</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -20309,10 +20309,10 @@
       <c r="D27" s="76"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>495</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="52">
         <v>20</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -20338,7 +20338,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="76"/>
       <c r="C29" s="76"/>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="47" t="s">
         <v>496</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -20442,7 +20442,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="47" t="s">
         <v>491</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -20507,10 +20507,10 @@
       <c r="D37" s="76"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="52">
         <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -20536,7 +20536,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="47" t="s">
         <v>506</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -20680,7 +20680,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="47" t="s">
         <v>491</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -20765,10 +20765,10 @@
       <c r="D50" s="76"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="52">
         <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -20794,7 +20794,7 @@
     <row r="52" spans="2:10" ht="28.9">
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="47" t="s">
         <v>476</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -20898,7 +20898,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="47" t="s">
         <v>491</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -20963,10 +20963,10 @@
       <c r="D60" s="76"/>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="49" t="s">
         <v>527</v>
       </c>
-      <c r="C61" s="48">
+      <c r="C61" s="52">
         <v>15</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -20992,7 +20992,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="76"/>
       <c r="C62" s="76"/>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="47" t="s">
         <v>476</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -21096,7 +21096,7 @@
     <row r="67" spans="2:10">
       <c r="B67" s="76"/>
       <c r="C67" s="76"/>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="47" t="s">
         <v>533</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -21161,10 +21161,10 @@
       <c r="D70" s="76"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="C71" s="48">
+      <c r="C71" s="52">
         <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -21190,7 +21190,7 @@
     <row r="72" spans="2:10" ht="28.9">
       <c r="B72" s="76"/>
       <c r="C72" s="76"/>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="47" t="s">
         <v>496</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -21314,7 +21314,7 @@
     <row r="78" spans="2:10">
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="47" t="s">
         <v>544</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -21482,39 +21482,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="J61:J69"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="B71:B81"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="J71:J80"/>
-    <mergeCell ref="C71:C81"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
     <mergeCell ref="J28:J36"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="C61:C70"/>
@@ -21531,6 +21498,39 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="C38:C50"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="C51:C60"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="J61:J69"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="B71:B81"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="J71:J80"/>
+    <mergeCell ref="C71:C81"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C18:C27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21558,7 +21558,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>563</v>
       </c>
       <c r="D1" s="76"/>
@@ -21568,7 +21568,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>564</v>
       </c>
       <c r="D2" s="76"/>
@@ -21581,15 +21581,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="46" t="s">
         <v>472</v>
       </c>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -21617,31 +21617,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -21652,15 +21652,15 @@
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="76"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="52">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -21686,7 +21686,7 @@
     <row r="11" spans="2:10" ht="28.9">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="47" t="s">
         <v>568</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -21771,7 +21771,7 @@
     <row r="16" spans="2:10" ht="28.9">
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -21815,10 +21815,10 @@
       <c r="D18" s="76"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="52">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -21844,7 +21844,7 @@
     <row r="20" spans="2:10" ht="28.9">
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="47" t="s">
         <v>576</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -21941,7 +21941,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -22000,10 +22000,10 @@
       <c r="D28" s="76"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>585</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="52">
         <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -22029,7 +22029,7 @@
     <row r="30" spans="2:10">
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="47" t="s">
         <v>586</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -22138,7 +22138,7 @@
     <row r="35" spans="2:10" ht="14.45" customHeight="1">
       <c r="B35" s="76"/>
       <c r="C35" s="76"/>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -22183,10 +22183,10 @@
       <c r="D37" s="76"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="52">
         <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -22212,7 +22212,7 @@
     <row r="39" spans="2:10" ht="28.9">
       <c r="B39" s="76"/>
       <c r="C39" s="76"/>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="47" t="s">
         <v>594</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -22296,7 +22296,7 @@
     <row r="43" spans="2:10" ht="14.45" customHeight="1">
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -22339,10 +22339,10 @@
       <c r="D45" s="76"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="49" t="s">
         <v>601</v>
       </c>
-      <c r="C46" s="48">
+      <c r="C46" s="52">
         <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -22368,7 +22368,7 @@
     <row r="47" spans="2:10" ht="28.9">
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="47" t="s">
         <v>602</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -22453,7 +22453,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -22515,10 +22515,10 @@
       <c r="D55" s="76"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="52">
         <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -22544,7 +22544,7 @@
     <row r="57" spans="2:10" ht="28.9">
       <c r="B57" s="76"/>
       <c r="C57" s="76"/>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="47" t="s">
         <v>611</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -22647,7 +22647,7 @@
     <row r="62" spans="2:10" ht="28.9" customHeight="1">
       <c r="B62" s="76"/>
       <c r="C62" s="76"/>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -22692,10 +22692,10 @@
       <c r="D64" s="76"/>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="49" t="s">
         <v>619</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="52">
         <v>17</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -22721,7 +22721,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="76"/>
       <c r="C66" s="76"/>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="47" t="s">
         <v>620</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -22820,7 +22820,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="76"/>
       <c r="C71" s="76"/>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -22884,10 +22884,10 @@
       <c r="D74" s="76"/>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="49" t="s">
         <v>629</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="52">
         <v>12</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -22913,7 +22913,7 @@
     <row r="76" spans="2:10">
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="47" t="s">
         <v>630</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -23016,7 +23016,7 @@
     <row r="81" spans="2:10" ht="28.9" customHeight="1">
       <c r="B81" s="76"/>
       <c r="C81" s="76"/>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -23061,10 +23061,10 @@
       <c r="D83" s="76"/>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="49" t="s">
         <v>638</v>
       </c>
-      <c r="C84" s="48">
+      <c r="C84" s="52">
         <v>11</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -23090,7 +23090,7 @@
     <row r="85" spans="2:10" ht="28.9">
       <c r="B85" s="76"/>
       <c r="C85" s="76"/>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="47" t="s">
         <v>639</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -23189,7 +23189,7 @@
     <row r="90" spans="2:10" ht="28.9">
       <c r="B90" s="76"/>
       <c r="C90" s="76"/>
-      <c r="D90" s="45" t="s">
+      <c r="D90" s="47" t="s">
         <v>133</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -23252,6 +23252,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="J84:J92"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="J46:J54"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="J75:J82"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="C84:C93"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C38:C45"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="B46:B55"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="J56:J63"/>
     <mergeCell ref="J65:J73"/>
@@ -23268,65 +23311,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C38:C45"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="C84:C93"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B84:B93"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="J29:J36"/>
-    <mergeCell ref="J75:J82"/>
-    <mergeCell ref="J38:J44"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="J84:J92"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="J46:J54"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="D85:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="aefc23d1fcd7657c59102621f2af9be9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ada23619a1ee36c99f0d192b4bcace" ns2:_="" ns3:_="">
     <xsd:import namespace="fcacaf0f-47d6-4512-8755-33aa81f58d6d"/>
@@ -23549,6 +23539,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -23559,11 +23559,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF758C54-36DD-4E26-BBB1-4DC31FD046CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870FB60B-40EC-411F-9D7C-2F1B327E96F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870FB60B-40EC-411F-9D7C-2F1B327E96F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF758C54-36DD-4E26-BBB1-4DC31FD046CB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
